--- a/externals/templates/ProfileTemplate.xlsx
+++ b/externals/templates/ProfileTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Instructions" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Template" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Profile" state="visible" r:id="rId3"/>
+    <sheet sheetId="2" name="Instructions" state="visible" r:id="rId4"/>
     <sheet sheetId="3" name="CategoriesReference" state="visible" r:id="rId5"/>
     <sheet sheetId="4" name="Make_Model_Year Reference" state="visible" r:id="rId6"/>
     <sheet sheetId="5" name="Region_TypeReference" state="visible" r:id="rId7"/>
@@ -17,6 +17,177 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="218">
   <si>
+    <t>#Meta</t>
+  </si>
+  <si>
+    <t>Trader ID:</t>
+  </si>
+  <si>
+    <t>Date Updated:</t>
+  </si>
+  <si>
+    <t>#CompanyProfile</t>
+  </si>
+  <si>
+    <t>#CompanyEquipment1</t>
+  </si>
+  <si>
+    <t>#CompanyEquipment2</t>
+  </si>
+  <si>
+    <t>#CompanyEquipment3</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>*Make:</t>
+  </si>
+  <si>
+    <t>Website:</t>
+  </si>
+  <si>
+    <t>*Model:</t>
+  </si>
+  <si>
+    <t>Address:</t>
+  </si>
+  <si>
+    <t>*Year:</t>
+  </si>
+  <si>
+    <t>Phone:</t>
+  </si>
+  <si>
+    <t>Serial No:</t>
+  </si>
+  <si>
+    <t>Fax:</t>
+  </si>
+  <si>
+    <t>Manufacture Date:</t>
+  </si>
+  <si>
+    <t>E-mail:</t>
+  </si>
+  <si>
+    <t>*Categories:</t>
+  </si>
+  <si>
+    <t>*Industry:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>*Type:</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>*Region:</t>
+  </si>
+  <si>
+    <t>#InstalledBase</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
+  <si>
+    <t>Expertise:</t>
+  </si>
+  <si>
+    <t>Trader:</t>
+  </si>
+  <si>
+    <t>#ContactsProfile1</t>
+  </si>
+  <si>
+    <t>#ContactEquipment1</t>
+  </si>
+  <si>
+    <t>#ContactEquipment2</t>
+  </si>
+  <si>
+    <t>#ContactEquipment3</t>
+  </si>
+  <si>
+    <t>Phone (Mobile):</t>
+  </si>
+  <si>
+    <t>Phone (Work):</t>
+  </si>
+  <si>
+    <t>Department:</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>Is Buyer:</t>
+  </si>
+  <si>
+    <t>Is Seller:</t>
+  </si>
+  <si>
+    <t>#Listing</t>
+  </si>
+  <si>
+    <t>*Contact Type:</t>
+  </si>
+  <si>
+    <t>ListingDescription:</t>
+  </si>
+  <si>
+    <t>#ContactRequirement1</t>
+  </si>
+  <si>
+    <t>#Match1</t>
+  </si>
+  <si>
+    <t>#Match2</t>
+  </si>
+  <si>
+    <t>#Match3</t>
+  </si>
+  <si>
+    <t>Max Price:</t>
+  </si>
+  <si>
+    <t>Expected Price:</t>
+  </si>
+  <si>
+    <t>Min Price:</t>
+  </si>
+  <si>
+    <t>Matcher:</t>
+  </si>
+  <si>
+    <t>Manufactured After:</t>
+  </si>
+  <si>
+    <t>Manufactured Before:</t>
+  </si>
+  <si>
+    <t>Expected Manufacture Date:</t>
+  </si>
+  <si>
+    <t>Expire after:</t>
+  </si>
+  <si>
+    <t>#ContactRequirement2</t>
+  </si>
+  <si>
+    <t>Expected Manufacture Year:</t>
+  </si>
+  <si>
+    <t>Categories (TopLevel/SubCat1,SubCat2;):</t>
+  </si>
+  <si>
+    <t>#ContactsProfile2</t>
+  </si>
+  <si>
     <t>Table/Field:</t>
   </si>
   <si>
@@ -26,40 +197,16 @@
     <t>Formats:</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>#Meta</t>
-  </si>
-  <si>
-    <t>Trader ID:</t>
-  </si>
-  <si>
     <t>hongxia</t>
   </si>
   <si>
-    <t>Date Updated:</t>
-  </si>
-  <si>
     <t>MM/DD/YYYY</t>
   </si>
   <si>
-    <t>#CompanyProfile</t>
-  </si>
-  <si>
-    <t>Name:</t>
-  </si>
-  <si>
     <t>Abound Solar, Inc.</t>
   </si>
   <si>
-    <t>Website:</t>
-  </si>
-  <si>
     <t>www.abound.com</t>
-  </si>
-  <si>
-    <t>Address:</t>
   </si>
   <si>
     <t>2695 Rocky Mountain Avenue
@@ -74,9 +221,6 @@
 Country</t>
   </si>
   <si>
-    <t>Phone:</t>
-  </si>
-  <si>
     <t>(650)521-6339
 (650)346-1234</t>
   </si>
@@ -89,43 +233,25 @@
     <t>support multiple values</t>
   </si>
   <si>
-    <t>Fax:</t>
-  </si>
-  <si>
     <t>same as other phone fields</t>
   </si>
   <si>
-    <t>E-mail:</t>
-  </si>
-  <si>
     <t>example@aboundsolar.com</t>
   </si>
   <si>
     <t>support 1 value</t>
   </si>
   <si>
-    <t>*Industry:</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>*Type:</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
     <t>Please refer to the RegionTypeReference</t>
   </si>
   <si>
-    <t>*Region:</t>
-  </si>
-  <si>
     <t>AS</t>
-  </si>
-  <si>
-    <t>*Categories:</t>
   </si>
   <si>
     <t>FEP/DF
@@ -141,15 +267,9 @@
 Please refer to the CategoriesReference sheet</t>
   </si>
   <si>
-    <t>Description:</t>
-  </si>
-  <si>
     <t>This is a description.</t>
   </si>
   <si>
-    <t>Expertise:</t>
-  </si>
-  <si>
     <t>This company are well known for ...</t>
   </si>
   <si>
@@ -171,25 +291,10 @@
     <t>hongxia.zhong@gmail.com</t>
   </si>
   <si>
-    <t>Phone (Mobile):</t>
-  </si>
-  <si>
-    <t>Phone (Work):</t>
-  </si>
-  <si>
-    <t>Department:</t>
-  </si>
-  <si>
     <t>Sales Department</t>
   </si>
   <si>
-    <t>Title:</t>
-  </si>
-  <si>
     <t>Purchasing Manager</t>
-  </si>
-  <si>
-    <t>Is Buyer:</t>
   </si>
   <si>
     <t>TRUE or FALSE</t>
@@ -197,9 +302,6 @@
   <si>
     <t>T, True, TRUE are all accepted
 same as F, False, FALSE</t>
-  </si>
-  <si>
-    <t>Is Seller:</t>
   </si>
   <si>
     <t>same as above</t>
@@ -216,9 +318,6 @@
 supports 1 value</t>
   </si>
   <si>
-    <t>*Contact Type:</t>
-  </si>
-  <si>
     <t>IRS</t>
   </si>
   <si>
@@ -235,43 +334,22 @@
     <t>supports multiple values</t>
   </si>
   <si>
-    <t>#ContactEquipment1</t>
-  </si>
-  <si>
-    <t>*Make:</t>
-  </si>
-  <si>
     <t>Make code</t>
   </si>
   <si>
     <t>find code from Make/Model/Year reference</t>
   </si>
   <si>
-    <t>*Model:</t>
-  </si>
-  <si>
     <t>Model code</t>
   </si>
   <si>
-    <t>*Year:</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Serial No:</t>
-  </si>
-  <si>
     <t>#SDF20123JKASDF</t>
   </si>
   <si>
-    <t>Manufacture Date:</t>
-  </si>
-  <si>
     <t>YYYY</t>
-  </si>
-  <si>
-    <t>#InstalledBase</t>
   </si>
   <si>
     <t>change the field to 
@@ -282,55 +360,22 @@
     <t>If the hashtag says #InstalledBase, the fields below will be ignored</t>
   </si>
   <si>
-    <t>Price:</t>
-  </si>
-  <si>
     <t>(only needed if #Listing is specified above)</t>
   </si>
   <si>
-    <t>Trader:</t>
-  </si>
-  <si>
     <t>trader's id</t>
   </si>
   <si>
-    <t>#ContactRequirement1</t>
-  </si>
-  <si>
-    <t>Max Price:</t>
-  </si>
-  <si>
     <t>a price value or empty</t>
   </si>
   <si>
     <t>empty value indicates that there is no upper bound</t>
   </si>
   <si>
-    <t>Expected Price:</t>
-  </si>
-  <si>
-    <t>Min Price:</t>
-  </si>
-  <si>
-    <t>Manufactured After:</t>
-  </si>
-  <si>
     <t>a year value or empty</t>
   </si>
   <si>
-    <t>Manufactured Before:</t>
-  </si>
-  <si>
-    <t>Expected Manufacture Date:</t>
-  </si>
-  <si>
-    <t>Expire after:</t>
-  </si>
-  <si>
     <t>the date by which this requirement is valid</t>
-  </si>
-  <si>
-    <t>#Match1</t>
   </si>
   <si>
     <t>must be a valid make code from Reference</t>
@@ -353,51 +398,6 @@
   <si>
     <t>multiple values
 yyyy1-yyyy2 means all years in between</t>
-  </si>
-  <si>
-    <t>Matcher:</t>
-  </si>
-  <si>
-    <t>#CompanyEquipment1</t>
-  </si>
-  <si>
-    <t>#CompanyEquipment2</t>
-  </si>
-  <si>
-    <t>#CompanyEquipment3</t>
-  </si>
-  <si>
-    <t>#ContactsProfile1</t>
-  </si>
-  <si>
-    <t>#ContactEquipment2</t>
-  </si>
-  <si>
-    <t>#ContactEquipment3</t>
-  </si>
-  <si>
-    <t>#Listing</t>
-  </si>
-  <si>
-    <t>ListingDescription:</t>
-  </si>
-  <si>
-    <t>#Match2</t>
-  </si>
-  <si>
-    <t>#Match3</t>
-  </si>
-  <si>
-    <t>#ContactRequirement2</t>
-  </si>
-  <si>
-    <t>Expected Manufacture Year:</t>
-  </si>
-  <si>
-    <t>Categories (TopLevel/SubCat1,SubCat2;):</t>
-  </si>
-  <si>
-    <t>#ContactsProfile2</t>
   </si>
   <si>
     <t>Front End Processessing Equipment (FEP)</t>
@@ -1020,12 +1020,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1051,6 +1045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,34 +1504,34 @@
     <xf applyBorder="1" applyAlignment="1" fillId="13" xfId="0" numFmtId="0" borderId="23" applyFont="1" fontId="20" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="14" xfId="0" numFmtId="164" borderId="0" fontId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
-    </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="24" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="25" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="14" xfId="0" numFmtId="0" borderId="26" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="27" applyFont="1" fontId="21">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="15" xfId="0" numFmtId="0" borderId="28" fontId="0" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="29" fontId="0">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="22" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="16" xfId="0" numFmtId="0" borderId="30" applyFont="1" fontId="22" applyFill="1">
       <alignment vertical="center" horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="23" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="17" xfId="0" numFmtId="0" borderId="31" applyFont="1" fontId="23" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyAlignment="1" fillId="19" xfId="0" numFmtId="0" borderId="32" applyFont="1" fontId="24" applyFill="1">
+    <xf applyBorder="1" applyAlignment="1" fillId="18" xfId="0" numFmtId="0" borderId="32" applyFont="1" fontId="24" applyFill="1">
+      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" fillId="19" xfId="0" numFmtId="164" borderId="0" fontId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="bottom" horizontal="general" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="33" fontId="0">
@@ -1550,6 +1550,1836 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="26.14"/>
+    <col min="2" customWidth="1" max="2" width="18.29"/>
+    <col min="3" customWidth="1" max="3" width="19.86"/>
+    <col min="4" customWidth="1" max="4" width="17.57"/>
+    <col min="5" customWidth="1" max="5" width="19.71"/>
+    <col min="6" customWidth="1" max="6" width="17.43"/>
+    <col min="7" customWidth="1" max="7" width="20.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="18" r="A1">
+        <v>0</v>
+      </c>
+      <c s="21" r="B1"/>
+      <c s="18" r="C1"/>
+      <c s="21" r="D1"/>
+      <c s="18" r="E1"/>
+      <c s="21" r="F1"/>
+      <c s="24" r="G1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="24" r="A2">
+        <v>1</v>
+      </c>
+      <c s="28" r="B2"/>
+      <c s="24" r="C2"/>
+      <c s="28" r="D2"/>
+      <c s="24" r="E2"/>
+      <c s="28" r="F2"/>
+      <c s="24" r="G2"/>
+    </row>
+    <row customHeight="1" r="3" ht="14.25">
+      <c t="s" s="24" r="A3">
+        <v>2</v>
+      </c>
+      <c s="28" r="B3"/>
+      <c s="24" r="C3"/>
+      <c s="28" r="D3"/>
+      <c s="24" r="E3"/>
+      <c s="28" r="F3"/>
+      <c s="24" r="G3"/>
+    </row>
+    <row r="4">
+      <c s="24" r="A4"/>
+      <c s="28" r="B4"/>
+      <c s="24" r="C4"/>
+      <c s="28" r="D4"/>
+      <c s="24" r="E4"/>
+      <c s="28" r="F4"/>
+      <c s="24" r="G4"/>
+    </row>
+    <row r="5">
+      <c s="20" r="A5"/>
+      <c s="1" r="B5"/>
+      <c s="20" r="C5"/>
+      <c s="1" r="D5"/>
+      <c s="20" r="E5"/>
+      <c s="1" r="F5"/>
+      <c s="20" r="G5"/>
+      <c s="34" r="H5"/>
+      <c s="34" r="I5"/>
+      <c s="34" r="J5"/>
+      <c s="34" r="K5"/>
+      <c s="34" r="L5"/>
+      <c s="34" r="M5"/>
+      <c s="34" r="N5"/>
+      <c s="34" r="O5"/>
+      <c s="34" r="P5"/>
+      <c s="34" r="Q5"/>
+      <c s="34" r="R5"/>
+      <c s="34" r="S5"/>
+      <c s="34" r="T5"/>
+    </row>
+    <row r="6">
+      <c t="s" s="41" r="A6">
+        <v>3</v>
+      </c>
+      <c s="11" r="B6"/>
+      <c t="s" s="41" r="C6">
+        <v>4</v>
+      </c>
+      <c s="11" r="D6"/>
+      <c t="s" s="41" r="E6">
+        <v>5</v>
+      </c>
+      <c s="11" r="F6"/>
+      <c t="s" s="41" r="G6">
+        <v>6</v>
+      </c>
+      <c s="13" r="H6"/>
+      <c s="13" r="I6"/>
+      <c s="13" r="J6"/>
+      <c s="13" r="K6"/>
+      <c s="13" r="L6"/>
+      <c s="13" r="M6"/>
+      <c s="13" r="N6"/>
+      <c s="13" r="O6"/>
+      <c s="13" r="P6"/>
+      <c s="13" r="Q6"/>
+      <c s="13" r="R6"/>
+      <c s="13" r="S6"/>
+      <c s="13" r="T6"/>
+    </row>
+    <row r="7">
+      <c t="s" s="24" r="A7">
+        <v>7</v>
+      </c>
+      <c s="28" r="B7"/>
+      <c t="s" s="24" r="C7">
+        <v>8</v>
+      </c>
+      <c s="28" r="D7"/>
+      <c t="s" s="24" r="E7">
+        <v>8</v>
+      </c>
+      <c s="28" r="F7"/>
+      <c t="s" s="24" r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="24" r="A8">
+        <v>9</v>
+      </c>
+      <c s="28" r="B8"/>
+      <c t="s" s="24" r="C8">
+        <v>10</v>
+      </c>
+      <c s="28" r="D8"/>
+      <c t="s" s="24" r="E8">
+        <v>10</v>
+      </c>
+      <c s="28" r="F8"/>
+      <c t="s" s="24" r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="24" r="A9">
+        <v>11</v>
+      </c>
+      <c s="28" r="B9"/>
+      <c t="s" s="24" r="C9">
+        <v>12</v>
+      </c>
+      <c s="28" r="D9"/>
+      <c t="s" s="24" r="E9">
+        <v>12</v>
+      </c>
+      <c s="28" r="F9"/>
+      <c t="s" s="24" r="G9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="24" r="A10">
+        <v>13</v>
+      </c>
+      <c s="28" r="B10"/>
+      <c t="s" s="24" r="C10">
+        <v>14</v>
+      </c>
+      <c s="28" r="D10"/>
+      <c t="s" s="24" r="E10">
+        <v>14</v>
+      </c>
+      <c s="28" r="F10"/>
+      <c t="s" s="24" r="G10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="24" r="A11">
+        <v>15</v>
+      </c>
+      <c s="28" r="B11"/>
+      <c t="s" s="24" r="C11">
+        <v>16</v>
+      </c>
+      <c s="28" r="D11"/>
+      <c t="s" s="24" r="E11">
+        <v>16</v>
+      </c>
+      <c s="28" r="F11"/>
+      <c t="s" s="24" r="G11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" s="24" r="A12">
+        <v>17</v>
+      </c>
+      <c s="28" r="B12"/>
+      <c t="s" s="24" r="C12">
+        <v>18</v>
+      </c>
+      <c s="28" r="D12"/>
+      <c t="s" s="24" r="E12">
+        <v>18</v>
+      </c>
+      <c s="28" r="F12"/>
+      <c t="s" s="24" r="G12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" s="24" r="A13">
+        <v>19</v>
+      </c>
+      <c s="28" r="B13"/>
+      <c t="s" s="24" r="C13">
+        <v>20</v>
+      </c>
+      <c s="28" r="D13"/>
+      <c t="s" s="24" r="E13">
+        <v>20</v>
+      </c>
+      <c s="28" r="F13"/>
+      <c t="s" s="24" r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" s="24" r="A14">
+        <v>21</v>
+      </c>
+      <c s="28" r="B14"/>
+      <c t="s" s="24" r="C14">
+        <v>22</v>
+      </c>
+      <c s="28" r="D14"/>
+      <c t="s" s="24" r="E14">
+        <v>22</v>
+      </c>
+      <c s="28" r="F14"/>
+      <c t="s" s="24" r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" s="24" r="A15">
+        <v>23</v>
+      </c>
+      <c s="28" r="B15"/>
+      <c t="s" s="18" r="C15">
+        <v>24</v>
+      </c>
+      <c s="28" r="D15"/>
+      <c t="s" s="18" r="E15">
+        <v>24</v>
+      </c>
+      <c s="28" r="F15"/>
+      <c t="s" s="18" r="G15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" s="24" r="A16">
+        <v>18</v>
+      </c>
+      <c s="28" r="B16"/>
+      <c t="s" s="24" r="C16">
+        <v>25</v>
+      </c>
+      <c s="28" r="D16"/>
+      <c t="s" s="24" r="E16">
+        <v>25</v>
+      </c>
+      <c s="28" r="F16"/>
+      <c t="s" s="24" r="G16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="24" r="A17">
+        <v>20</v>
+      </c>
+      <c s="28" r="B17"/>
+      <c t="s" s="24" r="C17">
+        <v>20</v>
+      </c>
+      <c s="28" r="D17"/>
+      <c t="s" s="24" r="E17">
+        <v>20</v>
+      </c>
+      <c s="28" r="F17"/>
+      <c t="s" s="24" r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="24" r="A18">
+        <v>26</v>
+      </c>
+      <c s="28" r="B18"/>
+      <c t="s" s="24" r="C18">
+        <v>27</v>
+      </c>
+      <c s="28" r="D18"/>
+      <c t="s" s="24" r="E18">
+        <v>27</v>
+      </c>
+      <c s="28" r="F18"/>
+      <c t="s" s="24" r="G18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c t="s" s="24" r="A19">
+        <v>22</v>
+      </c>
+      <c s="28" r="B19"/>
+      <c s="24" r="C19"/>
+      <c s="28" r="D19"/>
+      <c s="24" r="E19"/>
+      <c s="28" r="F19"/>
+      <c s="24" r="G19"/>
+    </row>
+    <row r="20">
+      <c s="24" r="A20"/>
+      <c s="16" r="B20"/>
+      <c s="24" r="C20"/>
+      <c s="16" r="D20"/>
+      <c s="24" r="E20"/>
+      <c s="28" r="F20"/>
+      <c s="24" r="G20"/>
+    </row>
+    <row r="21">
+      <c s="20" r="A21"/>
+      <c s="7" r="B21"/>
+      <c s="20" r="C21"/>
+      <c s="7" r="D21"/>
+      <c s="20" r="E21"/>
+      <c s="1" r="F21"/>
+      <c s="20" r="G21"/>
+      <c s="34" r="H21"/>
+      <c s="34" r="I21"/>
+      <c s="34" r="J21"/>
+      <c s="34" r="K21"/>
+      <c s="34" r="L21"/>
+      <c s="34" r="M21"/>
+      <c s="34" r="N21"/>
+      <c s="34" r="O21"/>
+      <c s="34" r="P21"/>
+      <c s="34" r="Q21"/>
+      <c s="34" r="R21"/>
+      <c s="34" r="S21"/>
+      <c s="34" r="T21"/>
+    </row>
+    <row r="22">
+      <c t="s" s="3" r="A22">
+        <v>28</v>
+      </c>
+      <c s="11" r="B22"/>
+      <c t="s" s="41" r="C22">
+        <v>29</v>
+      </c>
+      <c s="11" r="D22"/>
+      <c t="s" s="41" r="E22">
+        <v>30</v>
+      </c>
+      <c s="11" r="F22"/>
+      <c t="s" s="41" r="G22">
+        <v>31</v>
+      </c>
+      <c s="13" r="H22"/>
+      <c s="13" r="I22"/>
+      <c s="13" r="J22"/>
+      <c s="13" r="K22"/>
+      <c s="13" r="L22"/>
+      <c s="13" r="M22"/>
+      <c s="13" r="N22"/>
+      <c s="13" r="O22"/>
+      <c s="13" r="P22"/>
+      <c s="13" r="Q22"/>
+      <c s="13" r="R22"/>
+      <c s="13" r="S22"/>
+      <c s="13" r="T22"/>
+    </row>
+    <row r="23">
+      <c t="s" s="44" r="A23">
+        <v>7</v>
+      </c>
+      <c s="16" r="B23"/>
+      <c t="s" s="24" r="C23">
+        <v>8</v>
+      </c>
+      <c s="16" r="D23"/>
+      <c t="s" s="24" r="E23">
+        <v>8</v>
+      </c>
+      <c s="28" r="F23"/>
+      <c t="s" s="24" r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c t="s" s="44" r="A24">
+        <v>17</v>
+      </c>
+      <c s="16" r="B24"/>
+      <c t="s" s="24" r="C24">
+        <v>10</v>
+      </c>
+      <c s="16" r="D24"/>
+      <c t="s" s="24" r="E24">
+        <v>10</v>
+      </c>
+      <c s="28" r="F24"/>
+      <c t="s" s="24" r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c t="s" s="44" r="A25">
+        <v>32</v>
+      </c>
+      <c s="16" r="B25"/>
+      <c t="s" s="24" r="C25">
+        <v>12</v>
+      </c>
+      <c s="16" r="D25"/>
+      <c t="s" s="24" r="E25">
+        <v>12</v>
+      </c>
+      <c s="28" r="F25"/>
+      <c t="s" s="24" r="G25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c t="s" s="44" r="A26">
+        <v>33</v>
+      </c>
+      <c s="16" r="B26"/>
+      <c t="s" s="24" r="C26">
+        <v>14</v>
+      </c>
+      <c s="16" r="D26"/>
+      <c t="s" s="24" r="E26">
+        <v>14</v>
+      </c>
+      <c s="28" r="F26"/>
+      <c t="s" s="24" r="G26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c t="s" s="44" r="A27">
+        <v>15</v>
+      </c>
+      <c s="28" r="B27"/>
+      <c t="s" s="24" r="C27">
+        <v>16</v>
+      </c>
+      <c s="28" r="D27"/>
+      <c t="s" s="24" r="E27">
+        <v>16</v>
+      </c>
+      <c s="28" r="F27"/>
+      <c t="s" s="24" r="G27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c t="s" s="44" r="A28">
+        <v>34</v>
+      </c>
+      <c s="28" r="B28"/>
+      <c t="s" s="24" r="C28">
+        <v>18</v>
+      </c>
+      <c s="28" r="D28"/>
+      <c t="s" s="24" r="E28">
+        <v>18</v>
+      </c>
+      <c s="28" r="F28"/>
+      <c t="s" s="24" r="G28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="s" s="44" r="A29">
+        <v>35</v>
+      </c>
+      <c s="28" r="B29"/>
+      <c t="s" s="24" r="C29">
+        <v>20</v>
+      </c>
+      <c s="28" r="D29"/>
+      <c t="s" s="24" r="E29">
+        <v>20</v>
+      </c>
+      <c s="28" r="F29"/>
+      <c t="s" s="24" r="G29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="s" s="44" r="A30">
+        <v>36</v>
+      </c>
+      <c s="28" r="B30"/>
+      <c t="s" s="24" r="C30">
+        <v>22</v>
+      </c>
+      <c s="28" r="D30"/>
+      <c t="s" s="24" r="E30">
+        <v>22</v>
+      </c>
+      <c s="28" r="F30"/>
+      <c t="s" s="24" r="G30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c t="s" s="44" r="A31">
+        <v>37</v>
+      </c>
+      <c s="28" r="B31"/>
+      <c t="s" s="18" r="C31">
+        <v>38</v>
+      </c>
+      <c s="28" r="D31"/>
+      <c t="s" s="18" r="E31">
+        <v>38</v>
+      </c>
+      <c s="28" r="F31"/>
+      <c t="s" s="18" r="G31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c t="s" s="44" r="A32">
+        <v>23</v>
+      </c>
+      <c s="28" r="B32"/>
+      <c t="s" s="24" r="C32">
+        <v>25</v>
+      </c>
+      <c s="28" r="D32"/>
+      <c t="s" s="24" r="E32">
+        <v>25</v>
+      </c>
+      <c s="28" r="F32"/>
+      <c t="s" s="24" r="G32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c t="s" s="44" r="A33">
+        <v>39</v>
+      </c>
+      <c s="14" r="B33"/>
+      <c t="s" s="24" r="C33">
+        <v>20</v>
+      </c>
+      <c s="28" r="D33"/>
+      <c t="s" s="24" r="E33">
+        <v>40</v>
+      </c>
+      <c s="28" r="F33"/>
+      <c t="s" s="24" r="G33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c t="s" s="44" r="A34">
+        <v>18</v>
+      </c>
+      <c s="14" r="B34"/>
+      <c t="s" s="24" r="C34">
+        <v>27</v>
+      </c>
+      <c s="28" r="D34"/>
+      <c t="s" s="24" r="E34">
+        <v>27</v>
+      </c>
+      <c s="28" r="F34"/>
+      <c t="s" s="24" r="G34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
+      <c t="s" s="44" r="A35">
+        <v>26</v>
+      </c>
+      <c s="14" r="B35"/>
+      <c s="24" r="C35"/>
+      <c s="28" r="D35"/>
+      <c s="24" r="E35"/>
+      <c s="28" r="F35"/>
+      <c s="24" r="G35"/>
+    </row>
+    <row r="36">
+      <c t="s" s="44" r="A36">
+        <v>22</v>
+      </c>
+      <c s="14" r="B36"/>
+      <c s="24" r="C36"/>
+      <c s="28" r="D36"/>
+      <c s="24" r="E36"/>
+      <c s="28" r="F36"/>
+      <c s="24" r="G36"/>
+    </row>
+    <row r="37">
+      <c s="24" r="A37"/>
+      <c s="14" r="B37"/>
+      <c s="24" r="C37"/>
+      <c s="28" r="D37"/>
+      <c s="24" r="E37"/>
+      <c s="28" r="F37"/>
+      <c s="24" r="G37"/>
+    </row>
+    <row r="38">
+      <c s="24" r="A38"/>
+      <c s="14" r="B38"/>
+      <c s="24" r="C38"/>
+      <c s="28" r="D38"/>
+      <c s="24" r="E38"/>
+      <c s="28" r="F38"/>
+      <c s="24" r="G38"/>
+    </row>
+    <row r="39">
+      <c t="s" s="18" r="A39">
+        <v>41</v>
+      </c>
+      <c s="14" r="B39"/>
+      <c t="s" s="18" r="C39">
+        <v>42</v>
+      </c>
+      <c s="28" r="D39"/>
+      <c t="s" s="18" r="E39">
+        <v>43</v>
+      </c>
+      <c s="28" r="F39"/>
+      <c t="s" s="18" r="G39">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c t="s" s="24" r="A40">
+        <v>20</v>
+      </c>
+      <c s="14" r="B40"/>
+      <c t="s" s="24" r="C40">
+        <v>8</v>
+      </c>
+      <c s="28" r="D40"/>
+      <c t="s" s="24" r="E40">
+        <v>8</v>
+      </c>
+      <c s="28" r="F40"/>
+      <c t="s" s="24" r="G40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c t="s" s="24" r="A41">
+        <v>45</v>
+      </c>
+      <c s="14" r="B41"/>
+      <c t="s" s="24" r="C41">
+        <v>10</v>
+      </c>
+      <c s="28" r="D41"/>
+      <c t="s" s="24" r="E41">
+        <v>10</v>
+      </c>
+      <c s="28" r="F41"/>
+      <c t="s" s="24" r="G41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c t="s" s="24" r="A42">
+        <v>46</v>
+      </c>
+      <c s="28" r="B42"/>
+      <c t="s" s="24" r="C42">
+        <v>12</v>
+      </c>
+      <c s="28" r="D42"/>
+      <c t="s" s="24" r="E42">
+        <v>12</v>
+      </c>
+      <c s="28" r="F42"/>
+      <c t="s" s="24" r="G42">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" r="43" ht="15.75">
+      <c t="s" s="24" r="A43">
+        <v>47</v>
+      </c>
+      <c s="28" r="B43"/>
+      <c t="s" s="24" r="C43">
+        <v>48</v>
+      </c>
+      <c s="28" r="D43"/>
+      <c t="s" s="24" r="E43">
+        <v>48</v>
+      </c>
+      <c s="28" r="F43"/>
+      <c t="s" s="24" r="G43">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" r="44" ht="8.25">
+      <c t="s" s="24" r="A44">
+        <v>49</v>
+      </c>
+      <c s="28" r="B44"/>
+      <c t="s" s="24" r="C44">
+        <v>22</v>
+      </c>
+      <c s="28" r="D44"/>
+      <c t="s" s="24" r="E44">
+        <v>22</v>
+      </c>
+      <c s="28" r="F44"/>
+      <c t="s" s="24" r="G44">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c t="s" s="24" r="A45">
+        <v>50</v>
+      </c>
+      <c s="28" r="B45"/>
+      <c s="24" r="C45"/>
+      <c s="28" r="D45"/>
+      <c s="24" r="E45"/>
+      <c s="28" r="F45"/>
+      <c s="24" r="G45"/>
+    </row>
+    <row r="46">
+      <c t="s" s="24" r="A46">
+        <v>51</v>
+      </c>
+      <c s="28" r="B46"/>
+      <c s="24" r="C46"/>
+      <c s="28" r="D46"/>
+      <c s="24" r="E46"/>
+      <c s="28" r="F46"/>
+      <c s="24" r="G46"/>
+    </row>
+    <row r="47">
+      <c t="s" s="24" r="A47">
+        <v>52</v>
+      </c>
+      <c s="28" r="B47"/>
+      <c s="24" r="C47"/>
+      <c s="28" r="D47"/>
+      <c s="24" r="E47"/>
+      <c s="28" r="F47"/>
+      <c s="24" r="G47"/>
+    </row>
+    <row r="48">
+      <c t="s" s="24" r="A48">
+        <v>18</v>
+      </c>
+      <c s="28" r="B48"/>
+      <c s="24" r="C48"/>
+      <c s="28" r="D48"/>
+      <c s="24" r="E48"/>
+      <c s="28" r="F48"/>
+      <c s="24" r="G48"/>
+    </row>
+    <row r="49">
+      <c t="s" s="24" r="A49">
+        <v>27</v>
+      </c>
+      <c s="28" r="B49"/>
+      <c s="24" r="C49"/>
+      <c s="28" r="D49"/>
+      <c s="24" r="E49"/>
+      <c s="28" r="F49"/>
+      <c s="24" r="G49"/>
+    </row>
+    <row r="50">
+      <c t="s" s="24" r="A50">
+        <v>22</v>
+      </c>
+      <c s="28" r="B50"/>
+      <c s="24" r="C50"/>
+      <c s="28" r="D50"/>
+      <c s="24" r="E50"/>
+      <c s="28" r="F50"/>
+      <c s="24" r="G50"/>
+    </row>
+    <row r="51">
+      <c s="24" r="A51"/>
+      <c s="28" r="B51"/>
+      <c s="24" r="C51"/>
+      <c s="28" r="D51"/>
+      <c s="24" r="E51"/>
+      <c s="28" r="F51"/>
+      <c s="24" r="G51"/>
+    </row>
+    <row r="52">
+      <c s="24" r="A52"/>
+      <c s="28" r="B52"/>
+      <c s="24" r="C52"/>
+      <c s="28" r="D52"/>
+      <c s="24" r="E52"/>
+      <c s="28" r="F52"/>
+      <c s="24" r="G52"/>
+    </row>
+    <row r="53">
+      <c t="s" s="18" r="A53">
+        <v>53</v>
+      </c>
+      <c s="28" r="B53"/>
+      <c t="s" s="18" r="C53">
+        <v>42</v>
+      </c>
+      <c s="28" r="D53"/>
+      <c t="s" s="18" r="E53">
+        <v>43</v>
+      </c>
+      <c s="28" r="F53"/>
+      <c t="s" s="18" r="G53">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="s" s="24" r="A54">
+        <v>20</v>
+      </c>
+      <c s="28" r="B54"/>
+      <c t="s" s="24" r="C54">
+        <v>8</v>
+      </c>
+      <c s="28" r="D54"/>
+      <c t="s" s="24" r="E54">
+        <v>8</v>
+      </c>
+      <c s="28" r="F54"/>
+      <c t="s" s="24" r="G54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="s" s="24" r="A55">
+        <v>45</v>
+      </c>
+      <c s="28" r="B55"/>
+      <c t="s" s="24" r="C55">
+        <v>10</v>
+      </c>
+      <c s="28" r="D55"/>
+      <c t="s" s="24" r="E55">
+        <v>10</v>
+      </c>
+      <c s="28" r="F55"/>
+      <c t="s" s="24" r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c t="s" s="24" r="A56">
+        <v>46</v>
+      </c>
+      <c s="28" r="B56"/>
+      <c t="s" s="24" r="C56">
+        <v>12</v>
+      </c>
+      <c s="28" r="D56"/>
+      <c t="s" s="24" r="E56">
+        <v>12</v>
+      </c>
+      <c s="28" r="F56"/>
+      <c t="s" s="24" r="G56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c t="s" s="24" r="A57">
+        <v>47</v>
+      </c>
+      <c s="28" r="B57"/>
+      <c t="s" s="24" r="C57">
+        <v>48</v>
+      </c>
+      <c s="28" r="D57"/>
+      <c t="s" s="24" r="E57">
+        <v>48</v>
+      </c>
+      <c s="28" r="F57"/>
+      <c t="s" s="24" r="G57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58">
+      <c t="s" s="24" r="A58">
+        <v>49</v>
+      </c>
+      <c s="28" r="B58"/>
+      <c t="s" s="24" r="C58">
+        <v>22</v>
+      </c>
+      <c s="28" r="D58"/>
+      <c t="s" s="24" r="E58">
+        <v>22</v>
+      </c>
+      <c s="28" r="F58"/>
+      <c t="s" s="24" r="G58">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59">
+      <c t="s" s="24" r="A59">
+        <v>50</v>
+      </c>
+      <c s="28" r="B59"/>
+      <c s="24" r="C59"/>
+      <c s="28" r="D59"/>
+      <c s="24" r="E59"/>
+      <c s="28" r="F59"/>
+      <c s="24" r="G59"/>
+    </row>
+    <row r="60">
+      <c t="s" s="24" r="A60">
+        <v>54</v>
+      </c>
+      <c s="28" r="B60"/>
+      <c s="24" r="C60"/>
+      <c s="28" r="D60"/>
+      <c s="24" r="E60"/>
+      <c s="28" r="F60"/>
+      <c s="24" r="G60"/>
+    </row>
+    <row r="61">
+      <c t="s" s="24" r="A61">
+        <v>52</v>
+      </c>
+      <c s="28" r="B61"/>
+      <c s="24" r="C61"/>
+      <c s="28" r="D61"/>
+      <c s="24" r="E61"/>
+      <c s="28" r="F61"/>
+      <c s="24" r="G61"/>
+    </row>
+    <row r="62">
+      <c t="s" s="24" r="A62">
+        <v>55</v>
+      </c>
+      <c s="28" r="B62"/>
+      <c s="24" r="C62"/>
+      <c s="28" r="D62"/>
+      <c s="24" r="E62"/>
+      <c s="28" r="F62"/>
+      <c s="24" r="G62"/>
+    </row>
+    <row r="63">
+      <c t="s" s="24" r="A63">
+        <v>27</v>
+      </c>
+      <c s="28" r="B63"/>
+      <c s="24" r="C63"/>
+      <c s="28" r="D63"/>
+      <c s="24" r="E63"/>
+      <c s="28" r="F63"/>
+      <c s="24" r="G63"/>
+    </row>
+    <row r="64">
+      <c t="s" s="24" r="A64">
+        <v>22</v>
+      </c>
+      <c s="28" r="B64"/>
+      <c s="24" r="C64"/>
+      <c s="28" r="D64"/>
+      <c s="24" r="E64"/>
+      <c s="28" r="F64"/>
+      <c s="24" r="G64"/>
+    </row>
+    <row r="65">
+      <c s="24" r="A65"/>
+      <c s="28" r="B65"/>
+      <c s="24" r="C65"/>
+      <c s="28" r="D65"/>
+      <c s="24" r="E65"/>
+      <c s="28" r="F65"/>
+      <c s="24" r="G65"/>
+    </row>
+    <row r="66">
+      <c s="20" r="A66"/>
+      <c s="1" r="B66"/>
+      <c s="20" r="C66"/>
+      <c s="1" r="D66"/>
+      <c s="20" r="E66"/>
+      <c s="1" r="F66"/>
+      <c s="20" r="G66"/>
+      <c s="34" r="H66"/>
+      <c s="34" r="I66"/>
+      <c s="34" r="J66"/>
+      <c s="34" r="K66"/>
+      <c s="34" r="L66"/>
+      <c s="34" r="M66"/>
+      <c s="34" r="N66"/>
+      <c s="34" r="O66"/>
+      <c s="34" r="P66"/>
+      <c s="34" r="Q66"/>
+      <c s="34" r="R66"/>
+      <c s="34" r="S66"/>
+      <c s="34" r="T66"/>
+    </row>
+    <row r="67">
+      <c t="s" s="3" r="A67">
+        <v>56</v>
+      </c>
+      <c s="11" r="B67"/>
+      <c t="s" s="41" r="C67">
+        <v>29</v>
+      </c>
+      <c s="11" r="D67"/>
+      <c t="s" s="41" r="E67">
+        <v>30</v>
+      </c>
+      <c s="11" r="F67"/>
+      <c t="s" s="41" r="G67">
+        <v>31</v>
+      </c>
+      <c s="13" r="H67"/>
+      <c s="13" r="I67"/>
+      <c s="13" r="J67"/>
+      <c s="13" r="K67"/>
+      <c s="13" r="L67"/>
+      <c s="13" r="M67"/>
+      <c s="13" r="N67"/>
+      <c s="13" r="O67"/>
+      <c s="13" r="P67"/>
+      <c s="13" r="Q67"/>
+      <c s="13" r="R67"/>
+      <c s="13" r="S67"/>
+      <c s="13" r="T67"/>
+    </row>
+    <row r="68">
+      <c t="s" s="44" r="A68">
+        <v>7</v>
+      </c>
+      <c s="28" r="B68"/>
+      <c t="s" s="24" r="C68">
+        <v>8</v>
+      </c>
+      <c s="28" r="D68"/>
+      <c t="s" s="24" r="E68">
+        <v>8</v>
+      </c>
+      <c s="28" r="F68"/>
+      <c t="s" s="24" r="G68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c t="s" s="44" r="A69">
+        <v>17</v>
+      </c>
+      <c s="28" r="B69"/>
+      <c t="s" s="24" r="C69">
+        <v>10</v>
+      </c>
+      <c s="28" r="D69"/>
+      <c t="s" s="24" r="E69">
+        <v>10</v>
+      </c>
+      <c s="28" r="F69"/>
+      <c t="s" s="24" r="G69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c t="s" s="44" r="A70">
+        <v>32</v>
+      </c>
+      <c s="28" r="B70"/>
+      <c t="s" s="24" r="C70">
+        <v>12</v>
+      </c>
+      <c s="28" r="D70"/>
+      <c t="s" s="24" r="E70">
+        <v>12</v>
+      </c>
+      <c s="28" r="F70"/>
+      <c t="s" s="24" r="G70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c t="s" s="44" r="A71">
+        <v>33</v>
+      </c>
+      <c s="28" r="B71"/>
+      <c t="s" s="24" r="C71">
+        <v>14</v>
+      </c>
+      <c s="28" r="D71"/>
+      <c t="s" s="24" r="E71">
+        <v>14</v>
+      </c>
+      <c s="28" r="F71"/>
+      <c t="s" s="24" r="G71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c t="s" s="44" r="A72">
+        <v>15</v>
+      </c>
+      <c s="28" r="B72"/>
+      <c t="s" s="24" r="C72">
+        <v>16</v>
+      </c>
+      <c s="28" r="D72"/>
+      <c t="s" s="24" r="E72">
+        <v>16</v>
+      </c>
+      <c s="28" r="F72"/>
+      <c t="s" s="24" r="G72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c t="s" s="44" r="A73">
+        <v>34</v>
+      </c>
+      <c s="28" r="B73"/>
+      <c t="s" s="24" r="C73">
+        <v>18</v>
+      </c>
+      <c s="28" r="D73"/>
+      <c t="s" s="24" r="E73">
+        <v>18</v>
+      </c>
+      <c s="28" r="F73"/>
+      <c t="s" s="24" r="G73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74">
+      <c t="s" s="44" r="A74">
+        <v>35</v>
+      </c>
+      <c s="28" r="B74"/>
+      <c t="s" s="24" r="C74">
+        <v>20</v>
+      </c>
+      <c s="28" r="D74"/>
+      <c t="s" s="24" r="E74">
+        <v>20</v>
+      </c>
+      <c s="28" r="F74"/>
+      <c t="s" s="24" r="G74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c t="s" s="44" r="A75">
+        <v>36</v>
+      </c>
+      <c s="28" r="B75"/>
+      <c t="s" s="24" r="C75">
+        <v>22</v>
+      </c>
+      <c s="28" r="D75"/>
+      <c t="s" s="24" r="E75">
+        <v>22</v>
+      </c>
+      <c s="28" r="F75"/>
+      <c t="s" s="24" r="G75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76">
+      <c t="s" s="44" r="A76">
+        <v>37</v>
+      </c>
+      <c s="28" r="B76"/>
+      <c t="s" s="18" r="C76">
+        <v>38</v>
+      </c>
+      <c s="28" r="D76"/>
+      <c t="s" s="18" r="E76">
+        <v>38</v>
+      </c>
+      <c s="28" r="F76"/>
+      <c t="s" s="18" r="G76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77">
+      <c t="s" s="44" r="A77">
+        <v>23</v>
+      </c>
+      <c s="28" r="B77"/>
+      <c t="s" s="24" r="C77">
+        <v>25</v>
+      </c>
+      <c s="28" r="D77"/>
+      <c t="s" s="24" r="E77">
+        <v>25</v>
+      </c>
+      <c s="28" r="F77"/>
+      <c t="s" s="24" r="G77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c t="s" s="44" r="A78">
+        <v>39</v>
+      </c>
+      <c s="28" r="B78"/>
+      <c t="s" s="24" r="C78">
+        <v>40</v>
+      </c>
+      <c s="28" r="D78"/>
+      <c t="s" s="24" r="E78">
+        <v>40</v>
+      </c>
+      <c s="28" r="F78"/>
+      <c t="s" s="24" r="G78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79">
+      <c t="s" s="44" r="A79">
+        <v>18</v>
+      </c>
+      <c s="28" r="B79"/>
+      <c s="24" r="C79"/>
+      <c s="28" r="D79"/>
+      <c s="24" r="E79"/>
+      <c s="28" r="F79"/>
+      <c s="24" r="G79"/>
+    </row>
+    <row r="80">
+      <c t="s" s="44" r="A80">
+        <v>26</v>
+      </c>
+      <c s="28" r="B80"/>
+      <c s="24" r="C80"/>
+      <c s="28" r="D80"/>
+      <c s="24" r="E80"/>
+      <c s="28" r="F80"/>
+      <c s="24" r="G80"/>
+    </row>
+    <row r="81">
+      <c t="s" s="44" r="A81">
+        <v>22</v>
+      </c>
+      <c s="28" r="B81"/>
+      <c s="24" r="C81"/>
+      <c s="28" r="D81"/>
+      <c s="24" r="E81"/>
+      <c s="28" r="F81"/>
+      <c s="24" r="G81"/>
+    </row>
+    <row r="82">
+      <c s="24" r="A82"/>
+      <c s="28" r="B82"/>
+      <c s="24" r="C82"/>
+      <c s="28" r="D82"/>
+      <c s="24" r="E82"/>
+      <c s="28" r="F82"/>
+      <c s="24" r="G82"/>
+    </row>
+    <row r="83">
+      <c s="24" r="A83"/>
+      <c s="28" r="B83"/>
+      <c s="24" r="C83"/>
+      <c s="28" r="D83"/>
+      <c s="24" r="E83"/>
+      <c s="28" r="F83"/>
+      <c s="24" r="G83"/>
+    </row>
+    <row r="84">
+      <c s="24" r="A84"/>
+      <c s="28" r="B84"/>
+      <c s="24" r="C84"/>
+      <c s="28" r="D84"/>
+      <c s="24" r="E84"/>
+      <c s="28" r="F84"/>
+      <c s="24" r="G84"/>
+    </row>
+    <row r="85">
+      <c t="s" s="18" r="A85">
+        <v>41</v>
+      </c>
+      <c s="14" r="B85"/>
+      <c t="s" s="18" r="C85">
+        <v>42</v>
+      </c>
+      <c s="28" r="D85"/>
+      <c t="s" s="18" r="E85">
+        <v>43</v>
+      </c>
+      <c s="28" r="F85"/>
+      <c t="s" s="18" r="G85">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86">
+      <c t="s" s="24" r="A86">
+        <v>20</v>
+      </c>
+      <c s="14" r="B86"/>
+      <c t="s" s="24" r="C86">
+        <v>8</v>
+      </c>
+      <c s="28" r="D86"/>
+      <c t="s" s="24" r="E86">
+        <v>8</v>
+      </c>
+      <c s="28" r="F86"/>
+      <c t="s" s="24" r="G86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c t="s" s="24" r="A87">
+        <v>45</v>
+      </c>
+      <c s="14" r="B87"/>
+      <c t="s" s="24" r="C87">
+        <v>10</v>
+      </c>
+      <c s="28" r="D87"/>
+      <c t="s" s="24" r="E87">
+        <v>10</v>
+      </c>
+      <c s="28" r="F87"/>
+      <c t="s" s="24" r="G87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c t="s" s="24" r="A88">
+        <v>46</v>
+      </c>
+      <c s="28" r="B88"/>
+      <c t="s" s="24" r="C88">
+        <v>12</v>
+      </c>
+      <c s="28" r="D88"/>
+      <c t="s" s="24" r="E88">
+        <v>12</v>
+      </c>
+      <c s="28" r="F88"/>
+      <c t="s" s="24" r="G88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c t="s" s="24" r="A89">
+        <v>47</v>
+      </c>
+      <c s="28" r="B89"/>
+      <c t="s" s="24" r="C89">
+        <v>48</v>
+      </c>
+      <c s="28" r="D89"/>
+      <c t="s" s="24" r="E89">
+        <v>48</v>
+      </c>
+      <c s="28" r="F89"/>
+      <c t="s" s="24" r="G89">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c t="s" s="24" r="A90">
+        <v>49</v>
+      </c>
+      <c s="28" r="B90"/>
+      <c t="s" s="24" r="C90">
+        <v>22</v>
+      </c>
+      <c s="28" r="D90"/>
+      <c t="s" s="24" r="E90">
+        <v>22</v>
+      </c>
+      <c s="28" r="F90"/>
+      <c t="s" s="24" r="G90">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91">
+      <c t="s" s="24" r="A91">
+        <v>50</v>
+      </c>
+      <c s="28" r="B91"/>
+      <c s="24" r="C91"/>
+      <c s="28" r="D91"/>
+      <c s="24" r="E91"/>
+      <c s="28" r="F91"/>
+      <c s="24" r="G91"/>
+    </row>
+    <row r="92">
+      <c t="s" s="24" r="A92">
+        <v>51</v>
+      </c>
+      <c s="28" r="B92"/>
+      <c s="24" r="C92"/>
+      <c s="28" r="D92"/>
+      <c s="24" r="E92"/>
+      <c s="28" r="F92"/>
+      <c s="24" r="G92"/>
+    </row>
+    <row r="93">
+      <c t="s" s="24" r="A93">
+        <v>52</v>
+      </c>
+      <c s="28" r="B93"/>
+      <c s="24" r="C93"/>
+      <c s="28" r="D93"/>
+      <c s="24" r="E93"/>
+      <c s="28" r="F93"/>
+      <c s="24" r="G93"/>
+    </row>
+    <row r="94">
+      <c t="s" s="24" r="A94">
+        <v>18</v>
+      </c>
+      <c s="28" r="B94"/>
+      <c s="24" r="C94"/>
+      <c s="28" r="D94"/>
+      <c s="24" r="E94"/>
+      <c s="28" r="F94"/>
+      <c s="24" r="G94"/>
+    </row>
+    <row r="95">
+      <c t="s" s="24" r="A95">
+        <v>27</v>
+      </c>
+      <c s="28" r="B95"/>
+      <c s="24" r="C95"/>
+      <c s="28" r="D95"/>
+      <c s="24" r="E95"/>
+      <c s="28" r="F95"/>
+      <c s="24" r="G95"/>
+    </row>
+    <row r="96">
+      <c t="s" s="24" r="A96">
+        <v>22</v>
+      </c>
+      <c s="28" r="B96"/>
+      <c s="24" r="C96"/>
+      <c s="28" r="D96"/>
+      <c s="24" r="E96"/>
+      <c s="28" r="F96"/>
+      <c s="24" r="G96"/>
+    </row>
+    <row r="97">
+      <c s="24" r="A97"/>
+      <c s="28" r="B97"/>
+      <c s="24" r="C97"/>
+      <c s="28" r="D97"/>
+      <c s="24" r="E97"/>
+      <c s="28" r="F97"/>
+      <c s="24" r="G97"/>
+    </row>
+    <row r="98">
+      <c s="24" r="A98"/>
+      <c s="28" r="B98"/>
+      <c s="24" r="C98"/>
+      <c s="28" r="D98"/>
+      <c s="24" r="E98"/>
+      <c s="28" r="F98"/>
+      <c s="24" r="G98"/>
+    </row>
+    <row r="99">
+      <c t="s" s="18" r="A99">
+        <v>53</v>
+      </c>
+      <c s="28" r="B99"/>
+      <c t="s" s="18" r="C99">
+        <v>42</v>
+      </c>
+      <c s="28" r="D99"/>
+      <c t="s" s="18" r="E99">
+        <v>43</v>
+      </c>
+      <c s="28" r="F99"/>
+      <c t="s" s="18" r="G99">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100">
+      <c t="s" s="24" r="A100">
+        <v>20</v>
+      </c>
+      <c s="28" r="B100"/>
+      <c t="s" s="24" r="C100">
+        <v>8</v>
+      </c>
+      <c s="28" r="D100"/>
+      <c t="s" s="24" r="E100">
+        <v>8</v>
+      </c>
+      <c s="28" r="F100"/>
+      <c t="s" s="24" r="G100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c t="s" s="24" r="A101">
+        <v>45</v>
+      </c>
+      <c s="28" r="B101"/>
+      <c t="s" s="24" r="C101">
+        <v>10</v>
+      </c>
+      <c s="28" r="D101"/>
+      <c t="s" s="24" r="E101">
+        <v>10</v>
+      </c>
+      <c s="28" r="F101"/>
+      <c t="s" s="24" r="G101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c t="s" s="24" r="A102">
+        <v>46</v>
+      </c>
+      <c s="28" r="B102"/>
+      <c t="s" s="24" r="C102">
+        <v>12</v>
+      </c>
+      <c s="28" r="D102"/>
+      <c t="s" s="24" r="E102">
+        <v>12</v>
+      </c>
+      <c s="28" r="F102"/>
+      <c t="s" s="24" r="G102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c t="s" s="24" r="A103">
+        <v>47</v>
+      </c>
+      <c s="28" r="B103"/>
+      <c t="s" s="24" r="C103">
+        <v>48</v>
+      </c>
+      <c s="28" r="D103"/>
+      <c t="s" s="24" r="E103">
+        <v>48</v>
+      </c>
+      <c s="28" r="F103"/>
+      <c t="s" s="24" r="G103">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104">
+      <c t="s" s="24" r="A104">
+        <v>49</v>
+      </c>
+      <c s="28" r="B104"/>
+      <c t="s" s="24" r="C104">
+        <v>22</v>
+      </c>
+      <c s="28" r="D104"/>
+      <c t="s" s="24" r="E104">
+        <v>22</v>
+      </c>
+      <c s="28" r="F104"/>
+      <c t="s" s="24" r="G104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c t="s" s="24" r="A105">
+        <v>50</v>
+      </c>
+      <c s="28" r="B105"/>
+      <c s="24" r="C105"/>
+      <c s="28" r="D105"/>
+      <c s="24" r="E105"/>
+      <c s="28" r="F105"/>
+      <c s="24" r="G105"/>
+    </row>
+    <row r="106">
+      <c t="s" s="24" r="A106">
+        <v>54</v>
+      </c>
+      <c s="28" r="B106"/>
+      <c s="24" r="C106"/>
+      <c s="28" r="D106"/>
+      <c s="24" r="E106"/>
+      <c s="28" r="F106"/>
+      <c s="24" r="G106"/>
+    </row>
+    <row r="107">
+      <c t="s" s="24" r="A107">
+        <v>52</v>
+      </c>
+      <c s="28" r="B107"/>
+      <c s="24" r="C107"/>
+      <c s="28" r="D107"/>
+      <c s="24" r="E107"/>
+      <c s="28" r="F107"/>
+      <c s="24" r="G107"/>
+    </row>
+    <row r="108">
+      <c t="s" s="24" r="A108">
+        <v>55</v>
+      </c>
+      <c s="28" r="B108"/>
+      <c s="24" r="C108"/>
+      <c s="28" r="D108"/>
+      <c s="24" r="E108"/>
+      <c s="28" r="F108"/>
+      <c s="24" r="G108"/>
+    </row>
+    <row r="109">
+      <c t="s" s="24" r="A109">
+        <v>27</v>
+      </c>
+      <c s="28" r="B109"/>
+      <c s="24" r="C109"/>
+      <c s="28" r="D109"/>
+      <c s="24" r="E109"/>
+      <c s="28" r="F109"/>
+      <c s="24" r="G109"/>
+    </row>
+    <row r="110">
+      <c t="s" s="24" r="A110">
+        <v>22</v>
+      </c>
+      <c s="28" r="B110"/>
+      <c s="24" r="C110"/>
+      <c s="28" r="D110"/>
+      <c s="24" r="E110"/>
+      <c s="28" r="F110"/>
+      <c s="24" r="G110"/>
+    </row>
+    <row r="111">
+      <c s="24" r="A111"/>
+      <c s="28" r="B111"/>
+      <c s="24" r="C111"/>
+      <c s="28" r="D111"/>
+      <c s="24" r="E111"/>
+      <c s="28" r="F111"/>
+      <c s="24" r="G111"/>
+    </row>
+    <row r="112">
+      <c s="24" r="A112"/>
+      <c s="28" r="B112"/>
+      <c s="24" r="C112"/>
+      <c s="28" r="D112"/>
+      <c s="24" r="E112"/>
+      <c s="28" r="F112"/>
+      <c s="24" r="G112"/>
+    </row>
+    <row r="113">
+      <c s="24" r="A113"/>
+      <c s="28" r="B113"/>
+      <c s="24" r="C113"/>
+      <c s="28" r="D113"/>
+      <c s="24" r="E113"/>
+      <c s="28" r="F113"/>
+      <c s="24" r="G113"/>
+    </row>
+    <row r="114">
+      <c s="24" r="A114"/>
+      <c s="28" r="B114"/>
+      <c s="24" r="C114"/>
+      <c s="28" r="D114"/>
+      <c s="24" r="E114"/>
+      <c s="28" r="F114"/>
+      <c s="24" r="G114"/>
+    </row>
+    <row r="115">
+      <c s="24" r="A115"/>
+      <c s="28" r="B115"/>
+      <c s="24" r="C115"/>
+      <c s="28" r="D115"/>
+      <c s="24" r="E115"/>
+      <c s="28" r="F115"/>
+      <c s="24" r="G115"/>
+    </row>
+    <row r="116">
+      <c s="24" r="A116"/>
+      <c s="28" r="B116"/>
+      <c s="24" r="C116"/>
+      <c s="28" r="D116"/>
+      <c s="24" r="E116"/>
+      <c s="28" r="F116"/>
+      <c s="24" r="G116"/>
+    </row>
+    <row r="117">
+      <c s="24" r="A117"/>
+      <c s="28" r="B117"/>
+      <c s="24" r="C117"/>
+      <c s="28" r="D117"/>
+      <c s="24" r="E117"/>
+      <c s="28" r="F117"/>
+      <c s="24" r="G117"/>
+    </row>
+    <row r="118">
+      <c s="24" r="A118"/>
+      <c s="28" r="B118"/>
+      <c s="24" r="C118"/>
+      <c s="28" r="D118"/>
+      <c s="24" r="E118"/>
+      <c s="28" r="F118"/>
+      <c s="24" r="G118"/>
+    </row>
+    <row r="119">
+      <c s="24" r="A119"/>
+      <c s="28" r="B119"/>
+      <c s="24" r="C119"/>
+      <c s="28" r="D119"/>
+      <c s="24" r="E119"/>
+      <c s="28" r="F119"/>
+      <c s="24" r="G119"/>
+    </row>
+    <row r="120">
+      <c s="24" r="A120"/>
+      <c s="28" r="B120"/>
+      <c s="24" r="C120"/>
+      <c s="28" r="D120"/>
+      <c s="24" r="E120"/>
+      <c s="28" r="F120"/>
+      <c s="24" r="G120"/>
+    </row>
+    <row r="121">
+      <c s="24" r="A121"/>
+      <c s="28" r="B121"/>
+      <c s="24" r="C121"/>
+      <c s="28" r="D121"/>
+      <c s="24" r="E121"/>
+      <c s="28" r="F121"/>
+      <c s="24" r="G121"/>
+    </row>
+    <row r="122">
+      <c s="24" r="A122"/>
+      <c s="28" r="B122"/>
+      <c s="24" r="C122"/>
+      <c s="28" r="D122"/>
+      <c s="24" r="E122"/>
+      <c s="28" r="F122"/>
+      <c s="24" r="G122"/>
+    </row>
+    <row r="123">
+      <c s="24" r="A123"/>
+      <c s="28" r="B123"/>
+      <c s="24" r="C123"/>
+      <c s="28" r="D123"/>
+      <c s="24" r="E123"/>
+      <c s="28" r="F123"/>
+      <c s="24" r="G123"/>
+    </row>
+    <row r="124">
+      <c s="24" r="A124"/>
+      <c s="28" r="B124"/>
+      <c s="24" r="C124"/>
+      <c s="28" r="D124"/>
+      <c s="24" r="E124"/>
+      <c s="28" r="F124"/>
+      <c s="24" r="G124"/>
+    </row>
+    <row r="125">
+      <c s="24" r="A125"/>
+      <c s="28" r="B125"/>
+      <c s="24" r="C125"/>
+      <c s="28" r="D125"/>
+      <c s="24" r="E125"/>
+      <c s="28" r="F125"/>
+      <c s="24" r="G125"/>
+    </row>
+    <row r="126">
+      <c s="24" r="A126"/>
+      <c s="28" r="B126"/>
+      <c s="24" r="C126"/>
+      <c s="28" r="D126"/>
+      <c s="24" r="E126"/>
+      <c s="28" r="F126"/>
+      <c s="24" r="G126"/>
+    </row>
+    <row r="127">
+      <c s="24" r="A127"/>
+      <c s="28" r="B127"/>
+      <c s="24" r="C127"/>
+      <c s="28" r="D127"/>
+      <c s="24" r="E127"/>
+      <c s="28" r="F127"/>
+      <c s="24" r="G127"/>
+    </row>
+    <row r="128">
+      <c s="24" r="A128"/>
+      <c s="28" r="B128"/>
+      <c s="24" r="C128"/>
+      <c s="28" r="D128"/>
+      <c s="24" r="E128"/>
+      <c s="28" r="F128"/>
+      <c s="24" r="G128"/>
+    </row>
+    <row r="129">
+      <c s="24" r="A129"/>
+      <c s="28" r="B129"/>
+      <c s="24" r="C129"/>
+      <c s="28" r="D129"/>
+      <c s="24" r="E129"/>
+      <c s="28" r="F129"/>
+      <c s="24" r="G129"/>
+    </row>
+    <row r="130">
+      <c s="24" r="A130"/>
+      <c s="28" r="B130"/>
+      <c s="24" r="C130"/>
+      <c s="28" r="D130"/>
+      <c s="24" r="E130"/>
+      <c s="28" r="F130"/>
+      <c s="24" r="G130"/>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
@@ -1565,16 +3395,16 @@
   <sheetData>
     <row customHeight="1" r="1" ht="29.25">
       <c t="s" s="22" r="A1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c t="s" s="22" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" s="40" r="C1">
-        <v>2</v>
-      </c>
-      <c t="s" s="40" r="D1">
-        <v>3</v>
+        <v>58</v>
+      </c>
+      <c t="s" s="39" r="C1">
+        <v>59</v>
+      </c>
+      <c t="s" s="39" r="D1">
+        <v>22</v>
       </c>
       <c s="10" r="E1"/>
       <c s="10" r="F1"/>
@@ -1594,8 +3424,8 @@
       <c s="10" r="T1"/>
     </row>
     <row r="2">
-      <c t="s" s="42" r="A2">
-        <v>4</v>
+      <c t="s" s="41" r="A2">
+        <v>0</v>
       </c>
       <c s="29" r="B2"/>
       <c s="30" r="C2"/>
@@ -1619,51 +3449,51 @@
     </row>
     <row r="3">
       <c t="s" s="24" r="A3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c t="s" s="14" r="B3">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c s="19" r="C3"/>
       <c s="19" r="D3"/>
     </row>
     <row r="4">
       <c t="s" s="9" r="A4">
-        <v>7</v>
-      </c>
-      <c s="33" r="B4">
+        <v>2</v>
+      </c>
+      <c s="42" r="B4">
         <v>41352</v>
       </c>
       <c t="s" s="19" r="C4">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c s="19" r="D4"/>
     </row>
     <row r="5">
-      <c s="41" r="A5"/>
+      <c s="40" r="A5"/>
       <c s="32" r="B5"/>
-      <c s="38" r="C5"/>
-      <c s="38" r="D5"/>
-      <c s="35" r="E5"/>
-      <c s="35" r="F5"/>
-      <c s="35" r="G5"/>
-      <c s="35" r="H5"/>
-      <c s="35" r="I5"/>
-      <c s="35" r="J5"/>
-      <c s="35" r="K5"/>
-      <c s="35" r="L5"/>
-      <c s="35" r="M5"/>
-      <c s="35" r="N5"/>
-      <c s="35" r="O5"/>
-      <c s="35" r="P5"/>
-      <c s="35" r="Q5"/>
-      <c s="35" r="R5"/>
-      <c s="35" r="S5"/>
-      <c s="35" r="T5"/>
+      <c s="37" r="C5"/>
+      <c s="37" r="D5"/>
+      <c s="34" r="E5"/>
+      <c s="34" r="F5"/>
+      <c s="34" r="G5"/>
+      <c s="34" r="H5"/>
+      <c s="34" r="I5"/>
+      <c s="34" r="J5"/>
+      <c s="34" r="K5"/>
+      <c s="34" r="L5"/>
+      <c s="34" r="M5"/>
+      <c s="34" r="N5"/>
+      <c s="34" r="O5"/>
+      <c s="34" r="P5"/>
+      <c s="34" r="Q5"/>
+      <c s="34" r="R5"/>
+      <c s="34" r="S5"/>
+      <c s="34" r="T5"/>
     </row>
     <row r="6">
-      <c t="s" s="42" r="A6">
-        <v>9</v>
+      <c t="s" s="41" r="A6">
+        <v>3</v>
       </c>
       <c s="29" r="B6"/>
       <c s="30" r="C6"/>
@@ -1687,177 +3517,177 @@
     </row>
     <row r="7">
       <c t="s" s="24" r="A7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c t="s" s="14" r="B7">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c s="19" r="C7"/>
       <c s="19" r="D7"/>
     </row>
     <row r="8">
       <c t="s" s="24" r="A8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c t="s" s="14" r="B8">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c s="19" r="C8"/>
       <c s="19" r="D8"/>
     </row>
     <row r="9">
       <c t="s" s="24" r="A9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c t="s" s="14" r="B9">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c t="s" s="19" r="C9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c s="19" r="D9"/>
     </row>
     <row r="10">
       <c t="s" s="24" r="A10">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c t="s" s="14" r="B10">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c t="s" s="19" r="C10">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c t="s" s="19" r="D10">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c t="s" s="24" r="A11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c s="14" r="B11"/>
       <c s="19" r="C11"/>
       <c t="s" s="19" r="D11">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c t="s" s="24" r="A12">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c t="s" s="14" r="B12">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c s="19" r="C12"/>
       <c t="s" s="19" r="D12">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c t="s" s="24" r="A13">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c t="s" s="14" r="B13">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c s="19" r="C13"/>
       <c t="s" s="19" r="D13">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c t="s" s="24" r="A14">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c t="s" s="14" r="B14">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c s="19" r="C14"/>
       <c t="s" s="19" r="D14">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c t="s" s="24" r="A15">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c t="s" s="14" r="B15">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c s="19" r="C15"/>
       <c t="s" s="19" r="D15">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c t="s" s="24" r="A16">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c t="s" s="14" r="B16">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c t="s" s="19" r="C16">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c t="s" s="19" r="D16">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c t="s" s="24" r="A17">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c t="s" s="14" r="B17">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c s="19" r="C17"/>
       <c s="19" r="D17"/>
     </row>
     <row r="18">
       <c t="s" s="24" r="A18">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c t="s" s="14" r="B18">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c s="19" r="C18"/>
       <c s="19" r="D18"/>
     </row>
     <row r="19">
       <c t="s" s="9" r="A19">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c t="s" s="19" r="B19">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c s="19" r="C19"/>
       <c s="19" r="D19"/>
     </row>
     <row r="20">
-      <c s="41" r="A20"/>
-      <c s="38" r="B20"/>
-      <c s="38" r="C20"/>
-      <c s="38" r="D20"/>
-      <c s="35" r="E20"/>
-      <c s="35" r="F20"/>
-      <c s="35" r="G20"/>
-      <c s="35" r="H20"/>
-      <c s="35" r="I20"/>
-      <c s="35" r="J20"/>
-      <c s="35" r="K20"/>
-      <c s="35" r="L20"/>
-      <c s="35" r="M20"/>
-      <c s="35" r="N20"/>
-      <c s="35" r="O20"/>
-      <c s="35" r="P20"/>
-      <c s="35" r="Q20"/>
-      <c s="35" r="R20"/>
-      <c s="35" r="S20"/>
-      <c s="35" r="T20"/>
+      <c s="40" r="A20"/>
+      <c s="37" r="B20"/>
+      <c s="37" r="C20"/>
+      <c s="37" r="D20"/>
+      <c s="34" r="E20"/>
+      <c s="34" r="F20"/>
+      <c s="34" r="G20"/>
+      <c s="34" r="H20"/>
+      <c s="34" r="I20"/>
+      <c s="34" r="J20"/>
+      <c s="34" r="K20"/>
+      <c s="34" r="L20"/>
+      <c s="34" r="M20"/>
+      <c s="34" r="N20"/>
+      <c s="34" r="O20"/>
+      <c s="34" r="P20"/>
+      <c s="34" r="Q20"/>
+      <c s="34" r="R20"/>
+      <c s="34" r="S20"/>
+      <c s="34" r="T20"/>
     </row>
     <row r="21">
-      <c t="s" s="42" r="A21">
-        <v>42</v>
+      <c t="s" s="41" r="A21">
+        <v>82</v>
       </c>
       <c s="30" r="B21"/>
       <c s="30" r="C21"/>
@@ -1881,147 +3711,147 @@
     </row>
     <row r="22">
       <c t="s" s="24" r="A22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c t="s" s="19" r="B22">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c t="s" s="19" r="C22">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c t="s" s="19" r="D22">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c t="s" s="24" r="A23">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c t="s" s="19" r="B23">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c s="19" r="C23"/>
       <c s="19" r="D23"/>
     </row>
     <row r="24">
       <c t="s" s="24" r="A24">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c s="19" r="B24"/>
       <c s="19" r="C24"/>
       <c t="s" s="19" r="D24">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c t="s" s="24" r="A25">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c s="19" r="B25"/>
       <c s="19" r="C25"/>
       <c t="s" s="19" r="D25">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c t="s" s="24" r="A26">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c s="19" r="B26"/>
       <c s="19" r="C26"/>
       <c t="s" s="19" r="D26">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c t="s" s="24" r="A27">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c t="s" s="19" r="B27">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c s="19" r="C27"/>
       <c s="19" r="D27"/>
     </row>
     <row r="28">
       <c t="s" s="24" r="A28">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c t="s" s="19" r="B28">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c s="19" r="C28"/>
       <c s="19" r="D28"/>
     </row>
     <row r="29">
       <c t="s" s="24" r="A29">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c t="b" s="19" r="B29">
         <v>1</v>
       </c>
       <c t="s" s="19" r="C29">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c t="s" s="19" r="D29">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
       <c t="s" s="24" r="A30">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c s="19" r="B30"/>
       <c s="19" r="C30"/>
       <c t="s" s="19" r="D30">
-        <v>57</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
       <c t="s" s="24" r="A31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c t="s" s="19" r="B31">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c t="s" s="19" r="C31">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c t="s" s="19" r="D31">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c t="s" s="24" r="A32">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c t="s" s="19" r="B32">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c t="s" s="19" r="C32">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c t="s" s="19" r="D32">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c t="s" s="24" r="A33">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c t="s" s="19" r="B33">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c t="s" s="19" r="C33">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c t="s" s="19" r="D33">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c t="s" s="24" r="A34">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c s="19" r="B34"/>
       <c s="19" r="C34"/>
@@ -2029,37 +3859,37 @@
     </row>
     <row r="35">
       <c t="s" s="9" r="A35">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c s="19" r="B35"/>
       <c s="19" r="C35"/>
       <c s="19" r="D35"/>
     </row>
     <row r="36">
-      <c s="36" r="A36"/>
-      <c s="38" r="B36"/>
-      <c s="38" r="C36"/>
-      <c s="38" r="D36"/>
-      <c s="35" r="E36"/>
-      <c s="35" r="F36"/>
-      <c s="35" r="G36"/>
-      <c s="35" r="H36"/>
-      <c s="35" r="I36"/>
-      <c s="35" r="J36"/>
-      <c s="35" r="K36"/>
-      <c s="35" r="L36"/>
-      <c s="35" r="M36"/>
-      <c s="35" r="N36"/>
-      <c s="35" r="O36"/>
-      <c s="35" r="P36"/>
-      <c s="35" r="Q36"/>
-      <c s="35" r="R36"/>
-      <c s="35" r="S36"/>
-      <c s="35" r="T36"/>
+      <c s="35" r="A36"/>
+      <c s="37" r="B36"/>
+      <c s="37" r="C36"/>
+      <c s="37" r="D36"/>
+      <c s="34" r="E36"/>
+      <c s="34" r="F36"/>
+      <c s="34" r="G36"/>
+      <c s="34" r="H36"/>
+      <c s="34" r="I36"/>
+      <c s="34" r="J36"/>
+      <c s="34" r="K36"/>
+      <c s="34" r="L36"/>
+      <c s="34" r="M36"/>
+      <c s="34" r="N36"/>
+      <c s="34" r="O36"/>
+      <c s="34" r="P36"/>
+      <c s="34" r="Q36"/>
+      <c s="34" r="R36"/>
+      <c s="34" r="S36"/>
+      <c s="34" r="T36"/>
     </row>
     <row r="37">
-      <c t="s" s="42" r="A37">
-        <v>67</v>
+      <c t="s" s="41" r="A37">
+        <v>29</v>
       </c>
       <c s="30" r="B37"/>
       <c s="30" r="C37"/>
@@ -2083,128 +3913,128 @@
     </row>
     <row r="38">
       <c t="s" s="24" r="A38">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c t="s" r="C38">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c t="s" r="D38">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c t="s" s="24" r="A39">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c t="s" r="C39">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c t="s" s="24" r="A40">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c t="s" r="C40">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c t="s" s="24" r="A41">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c t="s" r="B41">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c t="s" s="24" r="A42">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>2013</v>
       </c>
       <c t="s" r="C42">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
       <c t="s" s="24" r="A43">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c t="s" s="24" r="A44">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c t="s" s="24" r="A45">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c t="s" s="18" r="A46">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c t="s" r="C46">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c t="s" r="D46">
-        <v>81</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c t="s" s="24" r="A47">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>12000.12</v>
       </c>
       <c t="s" r="D47">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
       <c t="s" s="24" r="A48">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c t="s" s="24" r="A49">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c t="s" r="B49">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c t="s" r="D49">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
-      <c s="36" r="A50"/>
-      <c s="35" r="B50"/>
-      <c s="35" r="C50"/>
-      <c s="35" r="D50"/>
-      <c s="35" r="E50"/>
-      <c s="35" r="F50"/>
-      <c s="35" r="G50"/>
-      <c s="35" r="H50"/>
-      <c s="35" r="I50"/>
-      <c s="35" r="J50"/>
-      <c s="35" r="K50"/>
-      <c s="35" r="L50"/>
-      <c s="35" r="M50"/>
-      <c s="35" r="N50"/>
-      <c s="35" r="O50"/>
-      <c s="35" r="P50"/>
-      <c s="35" r="Q50"/>
-      <c s="35" r="R50"/>
-      <c s="35" r="S50"/>
-      <c s="35" r="T50"/>
+      <c s="35" r="A50"/>
+      <c s="34" r="B50"/>
+      <c s="34" r="C50"/>
+      <c s="34" r="D50"/>
+      <c s="34" r="E50"/>
+      <c s="34" r="F50"/>
+      <c s="34" r="G50"/>
+      <c s="34" r="H50"/>
+      <c s="34" r="I50"/>
+      <c s="34" r="J50"/>
+      <c s="34" r="K50"/>
+      <c s="34" r="L50"/>
+      <c s="34" r="M50"/>
+      <c s="34" r="N50"/>
+      <c s="34" r="O50"/>
+      <c s="34" r="P50"/>
+      <c s="34" r="Q50"/>
+      <c s="34" r="R50"/>
+      <c s="34" r="S50"/>
+      <c s="34" r="T50"/>
     </row>
     <row r="51">
-      <c t="s" s="42" r="A51">
-        <v>86</v>
+      <c t="s" s="41" r="A51">
+        <v>41</v>
       </c>
       <c s="13" r="B51"/>
       <c s="13" r="C51"/>
@@ -2228,70 +4058,70 @@
     </row>
     <row r="52">
       <c t="s" s="24" r="A52">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c t="s" s="24" r="A53">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>2000000</v>
       </c>
       <c t="s" r="C53">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c t="s" r="D53">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
       <c t="s" s="24" r="A54">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>115000</v>
       </c>
       <c t="s" r="C54">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
       <c t="s" s="24" r="A55">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>100000</v>
       </c>
       <c t="s" r="C55">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56">
       <c t="s" s="24" r="A56">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B56">
         <v>2007</v>
       </c>
       <c t="s" r="C56">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
       <c t="s" s="24" r="A57">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B57">
         <v>2012</v>
       </c>
       <c t="s" r="C57">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c t="s" s="24" r="A58">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B58">
         <v>2009</v>
@@ -2299,55 +4129,55 @@
     </row>
     <row r="59">
       <c t="s" s="24" r="A59">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="B59">
         <v>2015</v>
       </c>
       <c t="s" r="D59">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c t="s" s="24" r="A60">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c t="s" s="24" r="A61">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c t="s" s="24" r="A62">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
-      <c s="36" r="A63"/>
-      <c s="35" r="B63"/>
-      <c s="35" r="C63"/>
-      <c s="35" r="D63"/>
-      <c s="35" r="E63"/>
-      <c s="35" r="F63"/>
-      <c s="35" r="G63"/>
-      <c s="35" r="H63"/>
-      <c s="35" r="I63"/>
-      <c s="35" r="J63"/>
-      <c s="35" r="K63"/>
-      <c s="35" r="L63"/>
-      <c s="35" r="M63"/>
-      <c s="35" r="N63"/>
-      <c s="35" r="O63"/>
-      <c s="35" r="P63"/>
-      <c s="35" r="Q63"/>
-      <c s="35" r="R63"/>
-      <c s="35" r="S63"/>
-      <c s="35" r="T63"/>
+      <c s="35" r="A63"/>
+      <c s="34" r="B63"/>
+      <c s="34" r="C63"/>
+      <c s="34" r="D63"/>
+      <c s="34" r="E63"/>
+      <c s="34" r="F63"/>
+      <c s="34" r="G63"/>
+      <c s="34" r="H63"/>
+      <c s="34" r="I63"/>
+      <c s="34" r="J63"/>
+      <c s="34" r="K63"/>
+      <c s="34" r="L63"/>
+      <c s="34" r="M63"/>
+      <c s="34" r="N63"/>
+      <c s="34" r="O63"/>
+      <c s="34" r="P63"/>
+      <c s="34" r="Q63"/>
+      <c s="34" r="R63"/>
+      <c s="34" r="S63"/>
+      <c s="34" r="T63"/>
     </row>
     <row r="64">
-      <c t="s" s="42" r="A64">
-        <v>98</v>
+      <c t="s" s="41" r="A64">
+        <v>42</v>
       </c>
       <c s="13" r="B64"/>
       <c s="13" r="C64"/>
@@ -2371,45 +4201,45 @@
     </row>
     <row r="65">
       <c t="s" s="24" r="A65">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c t="s" r="C65">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66">
       <c t="s" s="24" r="A66">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c t="s" r="B66">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c t="s" r="C66">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c t="s" r="D66">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
       <c t="s" s="24" r="A67">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c t="s" r="B67">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c t="s" r="C67">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c t="s" s="24" r="A68">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c t="s" s="24" r="A69">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -2504,1836 +4334,6 @@
     </row>
     <row r="100">
       <c s="9" r="A100"/>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="26.14"/>
-    <col min="2" customWidth="1" max="2" width="18.29"/>
-    <col min="3" customWidth="1" max="3" width="19.86"/>
-    <col min="4" customWidth="1" max="4" width="17.57"/>
-    <col min="5" customWidth="1" max="5" width="19.71"/>
-    <col min="6" customWidth="1" max="6" width="17.43"/>
-    <col min="7" customWidth="1" max="7" width="20.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="18" r="A1">
-        <v>4</v>
-      </c>
-      <c s="21" r="B1"/>
-      <c s="18" r="C1"/>
-      <c s="21" r="D1"/>
-      <c s="18" r="E1"/>
-      <c s="21" r="F1"/>
-      <c s="24" r="G1"/>
-    </row>
-    <row r="2">
-      <c t="s" s="24" r="A2">
-        <v>5</v>
-      </c>
-      <c s="28" r="B2"/>
-      <c s="24" r="C2"/>
-      <c s="28" r="D2"/>
-      <c s="24" r="E2"/>
-      <c s="28" r="F2"/>
-      <c s="24" r="G2"/>
-    </row>
-    <row customHeight="1" r="3" ht="14.25">
-      <c t="s" s="24" r="A3">
-        <v>7</v>
-      </c>
-      <c s="28" r="B3"/>
-      <c s="24" r="C3"/>
-      <c s="28" r="D3"/>
-      <c s="24" r="E3"/>
-      <c s="28" r="F3"/>
-      <c s="24" r="G3"/>
-    </row>
-    <row r="4">
-      <c s="24" r="A4"/>
-      <c s="28" r="B4"/>
-      <c s="24" r="C4"/>
-      <c s="28" r="D4"/>
-      <c s="24" r="E4"/>
-      <c s="28" r="F4"/>
-      <c s="24" r="G4"/>
-    </row>
-    <row r="5">
-      <c s="20" r="A5"/>
-      <c s="1" r="B5"/>
-      <c s="20" r="C5"/>
-      <c s="1" r="D5"/>
-      <c s="20" r="E5"/>
-      <c s="1" r="F5"/>
-      <c s="20" r="G5"/>
-      <c s="35" r="H5"/>
-      <c s="35" r="I5"/>
-      <c s="35" r="J5"/>
-      <c s="35" r="K5"/>
-      <c s="35" r="L5"/>
-      <c s="35" r="M5"/>
-      <c s="35" r="N5"/>
-      <c s="35" r="O5"/>
-      <c s="35" r="P5"/>
-      <c s="35" r="Q5"/>
-      <c s="35" r="R5"/>
-      <c s="35" r="S5"/>
-      <c s="35" r="T5"/>
-    </row>
-    <row r="6">
-      <c t="s" s="42" r="A6">
-        <v>9</v>
-      </c>
-      <c s="11" r="B6"/>
-      <c t="s" s="42" r="C6">
-        <v>106</v>
-      </c>
-      <c s="11" r="D6"/>
-      <c t="s" s="42" r="E6">
-        <v>107</v>
-      </c>
-      <c s="11" r="F6"/>
-      <c t="s" s="42" r="G6">
-        <v>108</v>
-      </c>
-      <c s="13" r="H6"/>
-      <c s="13" r="I6"/>
-      <c s="13" r="J6"/>
-      <c s="13" r="K6"/>
-      <c s="13" r="L6"/>
-      <c s="13" r="M6"/>
-      <c s="13" r="N6"/>
-      <c s="13" r="O6"/>
-      <c s="13" r="P6"/>
-      <c s="13" r="Q6"/>
-      <c s="13" r="R6"/>
-      <c s="13" r="S6"/>
-      <c s="13" r="T6"/>
-    </row>
-    <row r="7">
-      <c t="s" s="24" r="A7">
-        <v>10</v>
-      </c>
-      <c s="28" r="B7"/>
-      <c t="s" s="24" r="C7">
-        <v>68</v>
-      </c>
-      <c s="28" r="D7"/>
-      <c t="s" s="24" r="E7">
-        <v>68</v>
-      </c>
-      <c s="28" r="F7"/>
-      <c t="s" s="24" r="G7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="24" r="A8">
-        <v>12</v>
-      </c>
-      <c s="28" r="B8"/>
-      <c t="s" s="24" r="C8">
-        <v>71</v>
-      </c>
-      <c s="28" r="D8"/>
-      <c t="s" s="24" r="E8">
-        <v>71</v>
-      </c>
-      <c s="28" r="F8"/>
-      <c t="s" s="24" r="G8">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="24" r="A9">
-        <v>14</v>
-      </c>
-      <c s="28" r="B9"/>
-      <c t="s" s="24" r="C9">
-        <v>73</v>
-      </c>
-      <c s="28" r="D9"/>
-      <c t="s" s="24" r="E9">
-        <v>73</v>
-      </c>
-      <c s="28" r="F9"/>
-      <c t="s" s="24" r="G9">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="24" r="A10">
-        <v>17</v>
-      </c>
-      <c s="28" r="B10"/>
-      <c t="s" s="24" r="C10">
-        <v>75</v>
-      </c>
-      <c s="28" r="D10"/>
-      <c t="s" s="24" r="E10">
-        <v>75</v>
-      </c>
-      <c s="28" r="F10"/>
-      <c t="s" s="24" r="G10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="24" r="A11">
-        <v>21</v>
-      </c>
-      <c s="28" r="B11"/>
-      <c t="s" s="24" r="C11">
-        <v>77</v>
-      </c>
-      <c s="28" r="D11"/>
-      <c t="s" s="24" r="E11">
-        <v>77</v>
-      </c>
-      <c s="28" r="F11"/>
-      <c t="s" s="24" r="G11">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="24" r="A12">
-        <v>23</v>
-      </c>
-      <c s="28" r="B12"/>
-      <c t="s" s="24" r="C12">
-        <v>33</v>
-      </c>
-      <c s="28" r="D12"/>
-      <c t="s" s="24" r="E12">
-        <v>33</v>
-      </c>
-      <c s="28" r="F12"/>
-      <c t="s" s="24" r="G12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="24" r="A13">
-        <v>26</v>
-      </c>
-      <c s="28" r="B13"/>
-      <c t="s" s="24" r="C13">
-        <v>37</v>
-      </c>
-      <c s="28" r="D13"/>
-      <c t="s" s="24" r="E13">
-        <v>37</v>
-      </c>
-      <c s="28" r="F13"/>
-      <c t="s" s="24" r="G13">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="24" r="A14">
-        <v>28</v>
-      </c>
-      <c s="28" r="B14"/>
-      <c t="s" s="24" r="C14">
-        <v>3</v>
-      </c>
-      <c s="28" r="D14"/>
-      <c t="s" s="24" r="E14">
-        <v>3</v>
-      </c>
-      <c s="28" r="F14"/>
-      <c t="s" s="24" r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="24" r="A15">
-        <v>31</v>
-      </c>
-      <c s="28" r="B15"/>
-      <c t="s" s="18" r="C15">
-        <v>79</v>
-      </c>
-      <c s="28" r="D15"/>
-      <c t="s" s="18" r="E15">
-        <v>79</v>
-      </c>
-      <c s="28" r="F15"/>
-      <c t="s" s="18" r="G15">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="24" r="A16">
-        <v>33</v>
-      </c>
-      <c s="28" r="B16"/>
-      <c t="s" s="24" r="C16">
-        <v>82</v>
-      </c>
-      <c s="28" r="D16"/>
-      <c t="s" s="24" r="E16">
-        <v>82</v>
-      </c>
-      <c s="28" r="F16"/>
-      <c t="s" s="24" r="G16">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" s="24" r="A17">
-        <v>37</v>
-      </c>
-      <c s="28" r="B17"/>
-      <c t="s" s="24" r="C17">
-        <v>37</v>
-      </c>
-      <c s="28" r="D17"/>
-      <c t="s" s="24" r="E17">
-        <v>37</v>
-      </c>
-      <c s="28" r="F17"/>
-      <c t="s" s="24" r="G17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" s="24" r="A18">
-        <v>39</v>
-      </c>
-      <c s="28" r="B18"/>
-      <c t="s" s="24" r="C18">
-        <v>84</v>
-      </c>
-      <c s="28" r="D18"/>
-      <c t="s" s="24" r="E18">
-        <v>84</v>
-      </c>
-      <c s="28" r="F18"/>
-      <c t="s" s="24" r="G18">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="s" s="24" r="A19">
-        <v>3</v>
-      </c>
-      <c s="28" r="B19"/>
-      <c s="24" r="C19"/>
-      <c s="28" r="D19"/>
-      <c s="24" r="E19"/>
-      <c s="28" r="F19"/>
-      <c s="24" r="G19"/>
-    </row>
-    <row r="20">
-      <c s="24" r="A20"/>
-      <c s="16" r="B20"/>
-      <c s="24" r="C20"/>
-      <c s="16" r="D20"/>
-      <c s="24" r="E20"/>
-      <c s="28" r="F20"/>
-      <c s="24" r="G20"/>
-    </row>
-    <row r="21">
-      <c s="20" r="A21"/>
-      <c s="7" r="B21"/>
-      <c s="20" r="C21"/>
-      <c s="7" r="D21"/>
-      <c s="20" r="E21"/>
-      <c s="1" r="F21"/>
-      <c s="20" r="G21"/>
-      <c s="35" r="H21"/>
-      <c s="35" r="I21"/>
-      <c s="35" r="J21"/>
-      <c s="35" r="K21"/>
-      <c s="35" r="L21"/>
-      <c s="35" r="M21"/>
-      <c s="35" r="N21"/>
-      <c s="35" r="O21"/>
-      <c s="35" r="P21"/>
-      <c s="35" r="Q21"/>
-      <c s="35" r="R21"/>
-      <c s="35" r="S21"/>
-      <c s="35" r="T21"/>
-    </row>
-    <row r="22">
-      <c t="s" s="3" r="A22">
-        <v>109</v>
-      </c>
-      <c s="11" r="B22"/>
-      <c t="s" s="42" r="C22">
-        <v>67</v>
-      </c>
-      <c s="11" r="D22"/>
-      <c t="s" s="42" r="E22">
-        <v>110</v>
-      </c>
-      <c s="11" r="F22"/>
-      <c t="s" s="42" r="G22">
-        <v>111</v>
-      </c>
-      <c s="13" r="H22"/>
-      <c s="13" r="I22"/>
-      <c s="13" r="J22"/>
-      <c s="13" r="K22"/>
-      <c s="13" r="L22"/>
-      <c s="13" r="M22"/>
-      <c s="13" r="N22"/>
-      <c s="13" r="O22"/>
-      <c s="13" r="P22"/>
-      <c s="13" r="Q22"/>
-      <c s="13" r="R22"/>
-      <c s="13" r="S22"/>
-      <c s="13" r="T22"/>
-    </row>
-    <row r="23">
-      <c t="s" s="44" r="A23">
-        <v>10</v>
-      </c>
-      <c s="16" r="B23"/>
-      <c t="s" s="24" r="C23">
-        <v>68</v>
-      </c>
-      <c s="16" r="D23"/>
-      <c t="s" s="24" r="E23">
-        <v>68</v>
-      </c>
-      <c s="28" r="F23"/>
-      <c t="s" s="24" r="G23">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24">
-      <c t="s" s="44" r="A24">
-        <v>23</v>
-      </c>
-      <c s="16" r="B24"/>
-      <c t="s" s="24" r="C24">
-        <v>71</v>
-      </c>
-      <c s="16" r="D24"/>
-      <c t="s" s="24" r="E24">
-        <v>71</v>
-      </c>
-      <c s="28" r="F24"/>
-      <c t="s" s="24" r="G24">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25">
-      <c t="s" s="44" r="A25">
-        <v>47</v>
-      </c>
-      <c s="16" r="B25"/>
-      <c t="s" s="24" r="C25">
-        <v>73</v>
-      </c>
-      <c s="16" r="D25"/>
-      <c t="s" s="24" r="E25">
-        <v>73</v>
-      </c>
-      <c s="28" r="F25"/>
-      <c t="s" s="24" r="G25">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26">
-      <c t="s" s="44" r="A26">
-        <v>48</v>
-      </c>
-      <c s="16" r="B26"/>
-      <c t="s" s="24" r="C26">
-        <v>75</v>
-      </c>
-      <c s="16" r="D26"/>
-      <c t="s" s="24" r="E26">
-        <v>75</v>
-      </c>
-      <c s="28" r="F26"/>
-      <c t="s" s="24" r="G26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27">
-      <c t="s" s="44" r="A27">
-        <v>21</v>
-      </c>
-      <c s="28" r="B27"/>
-      <c t="s" s="24" r="C27">
-        <v>77</v>
-      </c>
-      <c s="28" r="D27"/>
-      <c t="s" s="24" r="E27">
-        <v>77</v>
-      </c>
-      <c s="28" r="F27"/>
-      <c t="s" s="24" r="G27">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28">
-      <c t="s" s="44" r="A28">
-        <v>49</v>
-      </c>
-      <c s="28" r="B28"/>
-      <c t="s" s="24" r="C28">
-        <v>33</v>
-      </c>
-      <c s="28" r="D28"/>
-      <c t="s" s="24" r="E28">
-        <v>33</v>
-      </c>
-      <c s="28" r="F28"/>
-      <c t="s" s="24" r="G28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29">
-      <c t="s" s="44" r="A29">
-        <v>51</v>
-      </c>
-      <c s="28" r="B29"/>
-      <c t="s" s="24" r="C29">
-        <v>37</v>
-      </c>
-      <c s="28" r="D29"/>
-      <c t="s" s="24" r="E29">
-        <v>37</v>
-      </c>
-      <c s="28" r="F29"/>
-      <c t="s" s="24" r="G29">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30">
-      <c t="s" s="44" r="A30">
-        <v>53</v>
-      </c>
-      <c s="28" r="B30"/>
-      <c t="s" s="24" r="C30">
-        <v>3</v>
-      </c>
-      <c s="28" r="D30"/>
-      <c t="s" s="24" r="E30">
-        <v>3</v>
-      </c>
-      <c s="28" r="F30"/>
-      <c t="s" s="24" r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c t="s" s="44" r="A31">
-        <v>56</v>
-      </c>
-      <c s="28" r="B31"/>
-      <c t="s" s="18" r="C31">
-        <v>112</v>
-      </c>
-      <c s="28" r="D31"/>
-      <c t="s" s="18" r="E31">
-        <v>112</v>
-      </c>
-      <c s="28" r="F31"/>
-      <c t="s" s="18" r="G31">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32">
-      <c t="s" s="44" r="A32">
-        <v>31</v>
-      </c>
-      <c s="28" r="B32"/>
-      <c t="s" s="24" r="C32">
-        <v>82</v>
-      </c>
-      <c s="28" r="D32"/>
-      <c t="s" s="24" r="E32">
-        <v>82</v>
-      </c>
-      <c s="28" r="F32"/>
-      <c t="s" s="24" r="G32">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33">
-      <c t="s" s="44" r="A33">
-        <v>61</v>
-      </c>
-      <c s="14" r="B33"/>
-      <c t="s" s="24" r="C33">
-        <v>37</v>
-      </c>
-      <c s="28" r="D33"/>
-      <c t="s" s="24" r="E33">
-        <v>113</v>
-      </c>
-      <c s="28" r="F33"/>
-      <c t="s" s="24" r="G33">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34">
-      <c t="s" s="44" r="A34">
-        <v>33</v>
-      </c>
-      <c s="14" r="B34"/>
-      <c t="s" s="24" r="C34">
-        <v>84</v>
-      </c>
-      <c s="28" r="D34"/>
-      <c t="s" s="24" r="E34">
-        <v>84</v>
-      </c>
-      <c s="28" r="F34"/>
-      <c t="s" s="24" r="G34">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35">
-      <c t="s" s="44" r="A35">
-        <v>39</v>
-      </c>
-      <c s="14" r="B35"/>
-      <c s="24" r="C35"/>
-      <c s="28" r="D35"/>
-      <c s="24" r="E35"/>
-      <c s="28" r="F35"/>
-      <c s="24" r="G35"/>
-    </row>
-    <row r="36">
-      <c t="s" s="44" r="A36">
-        <v>3</v>
-      </c>
-      <c s="14" r="B36"/>
-      <c s="24" r="C36"/>
-      <c s="28" r="D36"/>
-      <c s="24" r="E36"/>
-      <c s="28" r="F36"/>
-      <c s="24" r="G36"/>
-    </row>
-    <row r="37">
-      <c s="24" r="A37"/>
-      <c s="14" r="B37"/>
-      <c s="24" r="C37"/>
-      <c s="28" r="D37"/>
-      <c s="24" r="E37"/>
-      <c s="28" r="F37"/>
-      <c s="24" r="G37"/>
-    </row>
-    <row r="38">
-      <c s="24" r="A38"/>
-      <c s="14" r="B38"/>
-      <c s="24" r="C38"/>
-      <c s="28" r="D38"/>
-      <c s="24" r="E38"/>
-      <c s="28" r="F38"/>
-      <c s="24" r="G38"/>
-    </row>
-    <row r="39">
-      <c t="s" s="18" r="A39">
-        <v>86</v>
-      </c>
-      <c s="14" r="B39"/>
-      <c t="s" s="18" r="C39">
-        <v>98</v>
-      </c>
-      <c s="28" r="D39"/>
-      <c t="s" s="18" r="E39">
-        <v>114</v>
-      </c>
-      <c s="28" r="F39"/>
-      <c t="s" s="18" r="G39">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40">
-      <c t="s" s="24" r="A40">
-        <v>37</v>
-      </c>
-      <c s="14" r="B40"/>
-      <c t="s" s="24" r="C40">
-        <v>68</v>
-      </c>
-      <c s="28" r="D40"/>
-      <c t="s" s="24" r="E40">
-        <v>68</v>
-      </c>
-      <c s="28" r="F40"/>
-      <c t="s" s="24" r="G40">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41">
-      <c t="s" s="24" r="A41">
-        <v>87</v>
-      </c>
-      <c s="14" r="B41"/>
-      <c t="s" s="24" r="C41">
-        <v>71</v>
-      </c>
-      <c s="28" r="D41"/>
-      <c t="s" s="24" r="E41">
-        <v>71</v>
-      </c>
-      <c s="28" r="F41"/>
-      <c t="s" s="24" r="G41">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42">
-      <c t="s" s="24" r="A42">
-        <v>90</v>
-      </c>
-      <c s="28" r="B42"/>
-      <c t="s" s="24" r="C42">
-        <v>73</v>
-      </c>
-      <c s="28" r="D42"/>
-      <c t="s" s="24" r="E42">
-        <v>73</v>
-      </c>
-      <c s="28" r="F42"/>
-      <c t="s" s="24" r="G42">
-        <v>73</v>
-      </c>
-    </row>
-    <row customHeight="1" r="43" ht="15.75">
-      <c t="s" s="24" r="A43">
-        <v>91</v>
-      </c>
-      <c s="28" r="B43"/>
-      <c t="s" s="24" r="C43">
-        <v>105</v>
-      </c>
-      <c s="28" r="D43"/>
-      <c t="s" s="24" r="E43">
-        <v>105</v>
-      </c>
-      <c s="28" r="F43"/>
-      <c t="s" s="24" r="G43">
-        <v>105</v>
-      </c>
-    </row>
-    <row customHeight="1" r="44" ht="8.25">
-      <c t="s" s="24" r="A44">
-        <v>92</v>
-      </c>
-      <c s="28" r="B44"/>
-      <c t="s" s="24" r="C44">
-        <v>3</v>
-      </c>
-      <c s="28" r="D44"/>
-      <c t="s" s="24" r="E44">
-        <v>3</v>
-      </c>
-      <c s="28" r="F44"/>
-      <c t="s" s="24" r="G44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c t="s" s="24" r="A45">
-        <v>94</v>
-      </c>
-      <c s="28" r="B45"/>
-      <c s="24" r="C45"/>
-      <c s="28" r="D45"/>
-      <c s="24" r="E45"/>
-      <c s="28" r="F45"/>
-      <c s="24" r="G45"/>
-    </row>
-    <row r="46">
-      <c t="s" s="24" r="A46">
-        <v>95</v>
-      </c>
-      <c s="28" r="B46"/>
-      <c s="24" r="C46"/>
-      <c s="28" r="D46"/>
-      <c s="24" r="E46"/>
-      <c s="28" r="F46"/>
-      <c s="24" r="G46"/>
-    </row>
-    <row r="47">
-      <c t="s" s="24" r="A47">
-        <v>96</v>
-      </c>
-      <c s="28" r="B47"/>
-      <c s="24" r="C47"/>
-      <c s="28" r="D47"/>
-      <c s="24" r="E47"/>
-      <c s="28" r="F47"/>
-      <c s="24" r="G47"/>
-    </row>
-    <row r="48">
-      <c t="s" s="24" r="A48">
-        <v>33</v>
-      </c>
-      <c s="28" r="B48"/>
-      <c s="24" r="C48"/>
-      <c s="28" r="D48"/>
-      <c s="24" r="E48"/>
-      <c s="28" r="F48"/>
-      <c s="24" r="G48"/>
-    </row>
-    <row r="49">
-      <c t="s" s="24" r="A49">
-        <v>84</v>
-      </c>
-      <c s="28" r="B49"/>
-      <c s="24" r="C49"/>
-      <c s="28" r="D49"/>
-      <c s="24" r="E49"/>
-      <c s="28" r="F49"/>
-      <c s="24" r="G49"/>
-    </row>
-    <row r="50">
-      <c t="s" s="24" r="A50">
-        <v>3</v>
-      </c>
-      <c s="28" r="B50"/>
-      <c s="24" r="C50"/>
-      <c s="28" r="D50"/>
-      <c s="24" r="E50"/>
-      <c s="28" r="F50"/>
-      <c s="24" r="G50"/>
-    </row>
-    <row r="51">
-      <c s="24" r="A51"/>
-      <c s="28" r="B51"/>
-      <c s="24" r="C51"/>
-      <c s="28" r="D51"/>
-      <c s="24" r="E51"/>
-      <c s="28" r="F51"/>
-      <c s="24" r="G51"/>
-    </row>
-    <row r="52">
-      <c s="24" r="A52"/>
-      <c s="28" r="B52"/>
-      <c s="24" r="C52"/>
-      <c s="28" r="D52"/>
-      <c s="24" r="E52"/>
-      <c s="28" r="F52"/>
-      <c s="24" r="G52"/>
-    </row>
-    <row r="53">
-      <c t="s" s="18" r="A53">
-        <v>116</v>
-      </c>
-      <c s="28" r="B53"/>
-      <c t="s" s="18" r="C53">
-        <v>98</v>
-      </c>
-      <c s="28" r="D53"/>
-      <c t="s" s="18" r="E53">
-        <v>114</v>
-      </c>
-      <c s="28" r="F53"/>
-      <c t="s" s="18" r="G53">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54">
-      <c t="s" s="24" r="A54">
-        <v>37</v>
-      </c>
-      <c s="28" r="B54"/>
-      <c t="s" s="24" r="C54">
-        <v>68</v>
-      </c>
-      <c s="28" r="D54"/>
-      <c t="s" s="24" r="E54">
-        <v>68</v>
-      </c>
-      <c s="28" r="F54"/>
-      <c t="s" s="24" r="G54">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55">
-      <c t="s" s="24" r="A55">
-        <v>87</v>
-      </c>
-      <c s="28" r="B55"/>
-      <c t="s" s="24" r="C55">
-        <v>71</v>
-      </c>
-      <c s="28" r="D55"/>
-      <c t="s" s="24" r="E55">
-        <v>71</v>
-      </c>
-      <c s="28" r="F55"/>
-      <c t="s" s="24" r="G55">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56">
-      <c t="s" s="24" r="A56">
-        <v>90</v>
-      </c>
-      <c s="28" r="B56"/>
-      <c t="s" s="24" r="C56">
-        <v>73</v>
-      </c>
-      <c s="28" r="D56"/>
-      <c t="s" s="24" r="E56">
-        <v>73</v>
-      </c>
-      <c s="28" r="F56"/>
-      <c t="s" s="24" r="G56">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57">
-      <c t="s" s="24" r="A57">
-        <v>91</v>
-      </c>
-      <c s="28" r="B57"/>
-      <c t="s" s="24" r="C57">
-        <v>105</v>
-      </c>
-      <c s="28" r="D57"/>
-      <c t="s" s="24" r="E57">
-        <v>105</v>
-      </c>
-      <c s="28" r="F57"/>
-      <c t="s" s="24" r="G57">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58">
-      <c t="s" s="24" r="A58">
-        <v>92</v>
-      </c>
-      <c s="28" r="B58"/>
-      <c t="s" s="24" r="C58">
-        <v>3</v>
-      </c>
-      <c s="28" r="D58"/>
-      <c t="s" s="24" r="E58">
-        <v>3</v>
-      </c>
-      <c s="28" r="F58"/>
-      <c t="s" s="24" r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c t="s" s="24" r="A59">
-        <v>94</v>
-      </c>
-      <c s="28" r="B59"/>
-      <c s="24" r="C59"/>
-      <c s="28" r="D59"/>
-      <c s="24" r="E59"/>
-      <c s="28" r="F59"/>
-      <c s="24" r="G59"/>
-    </row>
-    <row r="60">
-      <c t="s" s="24" r="A60">
-        <v>117</v>
-      </c>
-      <c s="28" r="B60"/>
-      <c s="24" r="C60"/>
-      <c s="28" r="D60"/>
-      <c s="24" r="E60"/>
-      <c s="28" r="F60"/>
-      <c s="24" r="G60"/>
-    </row>
-    <row r="61">
-      <c t="s" s="24" r="A61">
-        <v>96</v>
-      </c>
-      <c s="28" r="B61"/>
-      <c s="24" r="C61"/>
-      <c s="28" r="D61"/>
-      <c s="24" r="E61"/>
-      <c s="28" r="F61"/>
-      <c s="24" r="G61"/>
-    </row>
-    <row r="62">
-      <c t="s" s="24" r="A62">
-        <v>118</v>
-      </c>
-      <c s="28" r="B62"/>
-      <c s="24" r="C62"/>
-      <c s="28" r="D62"/>
-      <c s="24" r="E62"/>
-      <c s="28" r="F62"/>
-      <c s="24" r="G62"/>
-    </row>
-    <row r="63">
-      <c t="s" s="24" r="A63">
-        <v>84</v>
-      </c>
-      <c s="28" r="B63"/>
-      <c s="24" r="C63"/>
-      <c s="28" r="D63"/>
-      <c s="24" r="E63"/>
-      <c s="28" r="F63"/>
-      <c s="24" r="G63"/>
-    </row>
-    <row r="64">
-      <c t="s" s="24" r="A64">
-        <v>3</v>
-      </c>
-      <c s="28" r="B64"/>
-      <c s="24" r="C64"/>
-      <c s="28" r="D64"/>
-      <c s="24" r="E64"/>
-      <c s="28" r="F64"/>
-      <c s="24" r="G64"/>
-    </row>
-    <row r="65">
-      <c s="24" r="A65"/>
-      <c s="28" r="B65"/>
-      <c s="24" r="C65"/>
-      <c s="28" r="D65"/>
-      <c s="24" r="E65"/>
-      <c s="28" r="F65"/>
-      <c s="24" r="G65"/>
-    </row>
-    <row r="66">
-      <c s="20" r="A66"/>
-      <c s="1" r="B66"/>
-      <c s="20" r="C66"/>
-      <c s="1" r="D66"/>
-      <c s="20" r="E66"/>
-      <c s="1" r="F66"/>
-      <c s="20" r="G66"/>
-      <c s="35" r="H66"/>
-      <c s="35" r="I66"/>
-      <c s="35" r="J66"/>
-      <c s="35" r="K66"/>
-      <c s="35" r="L66"/>
-      <c s="35" r="M66"/>
-      <c s="35" r="N66"/>
-      <c s="35" r="O66"/>
-      <c s="35" r="P66"/>
-      <c s="35" r="Q66"/>
-      <c s="35" r="R66"/>
-      <c s="35" r="S66"/>
-      <c s="35" r="T66"/>
-    </row>
-    <row r="67">
-      <c t="s" s="3" r="A67">
-        <v>119</v>
-      </c>
-      <c s="11" r="B67"/>
-      <c t="s" s="42" r="C67">
-        <v>67</v>
-      </c>
-      <c s="11" r="D67"/>
-      <c t="s" s="42" r="E67">
-        <v>110</v>
-      </c>
-      <c s="11" r="F67"/>
-      <c t="s" s="42" r="G67">
-        <v>111</v>
-      </c>
-      <c s="13" r="H67"/>
-      <c s="13" r="I67"/>
-      <c s="13" r="J67"/>
-      <c s="13" r="K67"/>
-      <c s="13" r="L67"/>
-      <c s="13" r="M67"/>
-      <c s="13" r="N67"/>
-      <c s="13" r="O67"/>
-      <c s="13" r="P67"/>
-      <c s="13" r="Q67"/>
-      <c s="13" r="R67"/>
-      <c s="13" r="S67"/>
-      <c s="13" r="T67"/>
-    </row>
-    <row r="68">
-      <c t="s" s="44" r="A68">
-        <v>10</v>
-      </c>
-      <c s="28" r="B68"/>
-      <c t="s" s="24" r="C68">
-        <v>68</v>
-      </c>
-      <c s="28" r="D68"/>
-      <c t="s" s="24" r="E68">
-        <v>68</v>
-      </c>
-      <c s="28" r="F68"/>
-      <c t="s" s="24" r="G68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69">
-      <c t="s" s="44" r="A69">
-        <v>23</v>
-      </c>
-      <c s="28" r="B69"/>
-      <c t="s" s="24" r="C69">
-        <v>71</v>
-      </c>
-      <c s="28" r="D69"/>
-      <c t="s" s="24" r="E69">
-        <v>71</v>
-      </c>
-      <c s="28" r="F69"/>
-      <c t="s" s="24" r="G69">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70">
-      <c t="s" s="44" r="A70">
-        <v>47</v>
-      </c>
-      <c s="28" r="B70"/>
-      <c t="s" s="24" r="C70">
-        <v>73</v>
-      </c>
-      <c s="28" r="D70"/>
-      <c t="s" s="24" r="E70">
-        <v>73</v>
-      </c>
-      <c s="28" r="F70"/>
-      <c t="s" s="24" r="G70">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71">
-      <c t="s" s="44" r="A71">
-        <v>48</v>
-      </c>
-      <c s="28" r="B71"/>
-      <c t="s" s="24" r="C71">
-        <v>75</v>
-      </c>
-      <c s="28" r="D71"/>
-      <c t="s" s="24" r="E71">
-        <v>75</v>
-      </c>
-      <c s="28" r="F71"/>
-      <c t="s" s="24" r="G71">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c t="s" s="44" r="A72">
-        <v>21</v>
-      </c>
-      <c s="28" r="B72"/>
-      <c t="s" s="24" r="C72">
-        <v>77</v>
-      </c>
-      <c s="28" r="D72"/>
-      <c t="s" s="24" r="E72">
-        <v>77</v>
-      </c>
-      <c s="28" r="F72"/>
-      <c t="s" s="24" r="G72">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c t="s" s="44" r="A73">
-        <v>49</v>
-      </c>
-      <c s="28" r="B73"/>
-      <c t="s" s="24" r="C73">
-        <v>33</v>
-      </c>
-      <c s="28" r="D73"/>
-      <c t="s" s="24" r="E73">
-        <v>33</v>
-      </c>
-      <c s="28" r="F73"/>
-      <c t="s" s="24" r="G73">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74">
-      <c t="s" s="44" r="A74">
-        <v>51</v>
-      </c>
-      <c s="28" r="B74"/>
-      <c t="s" s="24" r="C74">
-        <v>37</v>
-      </c>
-      <c s="28" r="D74"/>
-      <c t="s" s="24" r="E74">
-        <v>37</v>
-      </c>
-      <c s="28" r="F74"/>
-      <c t="s" s="24" r="G74">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75">
-      <c t="s" s="44" r="A75">
-        <v>53</v>
-      </c>
-      <c s="28" r="B75"/>
-      <c t="s" s="24" r="C75">
-        <v>3</v>
-      </c>
-      <c s="28" r="D75"/>
-      <c t="s" s="24" r="E75">
-        <v>3</v>
-      </c>
-      <c s="28" r="F75"/>
-      <c t="s" s="24" r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c t="s" s="44" r="A76">
-        <v>56</v>
-      </c>
-      <c s="28" r="B76"/>
-      <c t="s" s="18" r="C76">
-        <v>112</v>
-      </c>
-      <c s="28" r="D76"/>
-      <c t="s" s="18" r="E76">
-        <v>112</v>
-      </c>
-      <c s="28" r="F76"/>
-      <c t="s" s="18" r="G76">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77">
-      <c t="s" s="44" r="A77">
-        <v>31</v>
-      </c>
-      <c s="28" r="B77"/>
-      <c t="s" s="24" r="C77">
-        <v>82</v>
-      </c>
-      <c s="28" r="D77"/>
-      <c t="s" s="24" r="E77">
-        <v>82</v>
-      </c>
-      <c s="28" r="F77"/>
-      <c t="s" s="24" r="G77">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78">
-      <c t="s" s="44" r="A78">
-        <v>61</v>
-      </c>
-      <c s="28" r="B78"/>
-      <c t="s" s="24" r="C78">
-        <v>113</v>
-      </c>
-      <c s="28" r="D78"/>
-      <c t="s" s="24" r="E78">
-        <v>113</v>
-      </c>
-      <c s="28" r="F78"/>
-      <c t="s" s="24" r="G78">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79">
-      <c t="s" s="44" r="A79">
-        <v>33</v>
-      </c>
-      <c s="28" r="B79"/>
-      <c s="24" r="C79"/>
-      <c s="28" r="D79"/>
-      <c s="24" r="E79"/>
-      <c s="28" r="F79"/>
-      <c s="24" r="G79"/>
-    </row>
-    <row r="80">
-      <c t="s" s="44" r="A80">
-        <v>39</v>
-      </c>
-      <c s="28" r="B80"/>
-      <c s="24" r="C80"/>
-      <c s="28" r="D80"/>
-      <c s="24" r="E80"/>
-      <c s="28" r="F80"/>
-      <c s="24" r="G80"/>
-    </row>
-    <row r="81">
-      <c t="s" s="44" r="A81">
-        <v>3</v>
-      </c>
-      <c s="28" r="B81"/>
-      <c s="24" r="C81"/>
-      <c s="28" r="D81"/>
-      <c s="24" r="E81"/>
-      <c s="28" r="F81"/>
-      <c s="24" r="G81"/>
-    </row>
-    <row r="82">
-      <c s="24" r="A82"/>
-      <c s="28" r="B82"/>
-      <c s="24" r="C82"/>
-      <c s="28" r="D82"/>
-      <c s="24" r="E82"/>
-      <c s="28" r="F82"/>
-      <c s="24" r="G82"/>
-    </row>
-    <row r="83">
-      <c s="24" r="A83"/>
-      <c s="28" r="B83"/>
-      <c s="24" r="C83"/>
-      <c s="28" r="D83"/>
-      <c s="24" r="E83"/>
-      <c s="28" r="F83"/>
-      <c s="24" r="G83"/>
-    </row>
-    <row r="84">
-      <c s="24" r="A84"/>
-      <c s="28" r="B84"/>
-      <c s="24" r="C84"/>
-      <c s="28" r="D84"/>
-      <c s="24" r="E84"/>
-      <c s="28" r="F84"/>
-      <c s="24" r="G84"/>
-    </row>
-    <row r="85">
-      <c t="s" s="18" r="A85">
-        <v>86</v>
-      </c>
-      <c s="14" r="B85"/>
-      <c t="s" s="18" r="C85">
-        <v>98</v>
-      </c>
-      <c s="28" r="D85"/>
-      <c t="s" s="18" r="E85">
-        <v>114</v>
-      </c>
-      <c s="28" r="F85"/>
-      <c t="s" s="18" r="G85">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86">
-      <c t="s" s="24" r="A86">
-        <v>37</v>
-      </c>
-      <c s="14" r="B86"/>
-      <c t="s" s="24" r="C86">
-        <v>68</v>
-      </c>
-      <c s="28" r="D86"/>
-      <c t="s" s="24" r="E86">
-        <v>68</v>
-      </c>
-      <c s="28" r="F86"/>
-      <c t="s" s="24" r="G86">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87">
-      <c t="s" s="24" r="A87">
-        <v>87</v>
-      </c>
-      <c s="14" r="B87"/>
-      <c t="s" s="24" r="C87">
-        <v>71</v>
-      </c>
-      <c s="28" r="D87"/>
-      <c t="s" s="24" r="E87">
-        <v>71</v>
-      </c>
-      <c s="28" r="F87"/>
-      <c t="s" s="24" r="G87">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88">
-      <c t="s" s="24" r="A88">
-        <v>90</v>
-      </c>
-      <c s="28" r="B88"/>
-      <c t="s" s="24" r="C88">
-        <v>73</v>
-      </c>
-      <c s="28" r="D88"/>
-      <c t="s" s="24" r="E88">
-        <v>73</v>
-      </c>
-      <c s="28" r="F88"/>
-      <c t="s" s="24" r="G88">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89">
-      <c t="s" s="24" r="A89">
-        <v>91</v>
-      </c>
-      <c s="28" r="B89"/>
-      <c t="s" s="24" r="C89">
-        <v>105</v>
-      </c>
-      <c s="28" r="D89"/>
-      <c t="s" s="24" r="E89">
-        <v>105</v>
-      </c>
-      <c s="28" r="F89"/>
-      <c t="s" s="24" r="G89">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90">
-      <c t="s" s="24" r="A90">
-        <v>92</v>
-      </c>
-      <c s="28" r="B90"/>
-      <c t="s" s="24" r="C90">
-        <v>3</v>
-      </c>
-      <c s="28" r="D90"/>
-      <c t="s" s="24" r="E90">
-        <v>3</v>
-      </c>
-      <c s="28" r="F90"/>
-      <c t="s" s="24" r="G90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91">
-      <c t="s" s="24" r="A91">
-        <v>94</v>
-      </c>
-      <c s="28" r="B91"/>
-      <c s="24" r="C91"/>
-      <c s="28" r="D91"/>
-      <c s="24" r="E91"/>
-      <c s="28" r="F91"/>
-      <c s="24" r="G91"/>
-    </row>
-    <row r="92">
-      <c t="s" s="24" r="A92">
-        <v>95</v>
-      </c>
-      <c s="28" r="B92"/>
-      <c s="24" r="C92"/>
-      <c s="28" r="D92"/>
-      <c s="24" r="E92"/>
-      <c s="28" r="F92"/>
-      <c s="24" r="G92"/>
-    </row>
-    <row r="93">
-      <c t="s" s="24" r="A93">
-        <v>96</v>
-      </c>
-      <c s="28" r="B93"/>
-      <c s="24" r="C93"/>
-      <c s="28" r="D93"/>
-      <c s="24" r="E93"/>
-      <c s="28" r="F93"/>
-      <c s="24" r="G93"/>
-    </row>
-    <row r="94">
-      <c t="s" s="24" r="A94">
-        <v>33</v>
-      </c>
-      <c s="28" r="B94"/>
-      <c s="24" r="C94"/>
-      <c s="28" r="D94"/>
-      <c s="24" r="E94"/>
-      <c s="28" r="F94"/>
-      <c s="24" r="G94"/>
-    </row>
-    <row r="95">
-      <c t="s" s="24" r="A95">
-        <v>84</v>
-      </c>
-      <c s="28" r="B95"/>
-      <c s="24" r="C95"/>
-      <c s="28" r="D95"/>
-      <c s="24" r="E95"/>
-      <c s="28" r="F95"/>
-      <c s="24" r="G95"/>
-    </row>
-    <row r="96">
-      <c t="s" s="24" r="A96">
-        <v>3</v>
-      </c>
-      <c s="28" r="B96"/>
-      <c s="24" r="C96"/>
-      <c s="28" r="D96"/>
-      <c s="24" r="E96"/>
-      <c s="28" r="F96"/>
-      <c s="24" r="G96"/>
-    </row>
-    <row r="97">
-      <c s="24" r="A97"/>
-      <c s="28" r="B97"/>
-      <c s="24" r="C97"/>
-      <c s="28" r="D97"/>
-      <c s="24" r="E97"/>
-      <c s="28" r="F97"/>
-      <c s="24" r="G97"/>
-    </row>
-    <row r="98">
-      <c s="24" r="A98"/>
-      <c s="28" r="B98"/>
-      <c s="24" r="C98"/>
-      <c s="28" r="D98"/>
-      <c s="24" r="E98"/>
-      <c s="28" r="F98"/>
-      <c s="24" r="G98"/>
-    </row>
-    <row r="99">
-      <c t="s" s="18" r="A99">
-        <v>116</v>
-      </c>
-      <c s="28" r="B99"/>
-      <c t="s" s="18" r="C99">
-        <v>98</v>
-      </c>
-      <c s="28" r="D99"/>
-      <c t="s" s="18" r="E99">
-        <v>114</v>
-      </c>
-      <c s="28" r="F99"/>
-      <c t="s" s="18" r="G99">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100">
-      <c t="s" s="24" r="A100">
-        <v>37</v>
-      </c>
-      <c s="28" r="B100"/>
-      <c t="s" s="24" r="C100">
-        <v>68</v>
-      </c>
-      <c s="28" r="D100"/>
-      <c t="s" s="24" r="E100">
-        <v>68</v>
-      </c>
-      <c s="28" r="F100"/>
-      <c t="s" s="24" r="G100">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101">
-      <c t="s" s="24" r="A101">
-        <v>87</v>
-      </c>
-      <c s="28" r="B101"/>
-      <c t="s" s="24" r="C101">
-        <v>71</v>
-      </c>
-      <c s="28" r="D101"/>
-      <c t="s" s="24" r="E101">
-        <v>71</v>
-      </c>
-      <c s="28" r="F101"/>
-      <c t="s" s="24" r="G101">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102">
-      <c t="s" s="24" r="A102">
-        <v>90</v>
-      </c>
-      <c s="28" r="B102"/>
-      <c t="s" s="24" r="C102">
-        <v>73</v>
-      </c>
-      <c s="28" r="D102"/>
-      <c t="s" s="24" r="E102">
-        <v>73</v>
-      </c>
-      <c s="28" r="F102"/>
-      <c t="s" s="24" r="G102">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103">
-      <c t="s" s="24" r="A103">
-        <v>91</v>
-      </c>
-      <c s="28" r="B103"/>
-      <c t="s" s="24" r="C103">
-        <v>105</v>
-      </c>
-      <c s="28" r="D103"/>
-      <c t="s" s="24" r="E103">
-        <v>105</v>
-      </c>
-      <c s="28" r="F103"/>
-      <c t="s" s="24" r="G103">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104">
-      <c t="s" s="24" r="A104">
-        <v>92</v>
-      </c>
-      <c s="28" r="B104"/>
-      <c t="s" s="24" r="C104">
-        <v>3</v>
-      </c>
-      <c s="28" r="D104"/>
-      <c t="s" s="24" r="E104">
-        <v>3</v>
-      </c>
-      <c s="28" r="F104"/>
-      <c t="s" s="24" r="G104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105">
-      <c t="s" s="24" r="A105">
-        <v>94</v>
-      </c>
-      <c s="28" r="B105"/>
-      <c s="24" r="C105"/>
-      <c s="28" r="D105"/>
-      <c s="24" r="E105"/>
-      <c s="28" r="F105"/>
-      <c s="24" r="G105"/>
-    </row>
-    <row r="106">
-      <c t="s" s="24" r="A106">
-        <v>117</v>
-      </c>
-      <c s="28" r="B106"/>
-      <c s="24" r="C106"/>
-      <c s="28" r="D106"/>
-      <c s="24" r="E106"/>
-      <c s="28" r="F106"/>
-      <c s="24" r="G106"/>
-    </row>
-    <row r="107">
-      <c t="s" s="24" r="A107">
-        <v>96</v>
-      </c>
-      <c s="28" r="B107"/>
-      <c s="24" r="C107"/>
-      <c s="28" r="D107"/>
-      <c s="24" r="E107"/>
-      <c s="28" r="F107"/>
-      <c s="24" r="G107"/>
-    </row>
-    <row r="108">
-      <c t="s" s="24" r="A108">
-        <v>118</v>
-      </c>
-      <c s="28" r="B108"/>
-      <c s="24" r="C108"/>
-      <c s="28" r="D108"/>
-      <c s="24" r="E108"/>
-      <c s="28" r="F108"/>
-      <c s="24" r="G108"/>
-    </row>
-    <row r="109">
-      <c t="s" s="24" r="A109">
-        <v>84</v>
-      </c>
-      <c s="28" r="B109"/>
-      <c s="24" r="C109"/>
-      <c s="28" r="D109"/>
-      <c s="24" r="E109"/>
-      <c s="28" r="F109"/>
-      <c s="24" r="G109"/>
-    </row>
-    <row r="110">
-      <c t="s" s="24" r="A110">
-        <v>3</v>
-      </c>
-      <c s="28" r="B110"/>
-      <c s="24" r="C110"/>
-      <c s="28" r="D110"/>
-      <c s="24" r="E110"/>
-      <c s="28" r="F110"/>
-      <c s="24" r="G110"/>
-    </row>
-    <row r="111">
-      <c s="24" r="A111"/>
-      <c s="28" r="B111"/>
-      <c s="24" r="C111"/>
-      <c s="28" r="D111"/>
-      <c s="24" r="E111"/>
-      <c s="28" r="F111"/>
-      <c s="24" r="G111"/>
-    </row>
-    <row r="112">
-      <c s="24" r="A112"/>
-      <c s="28" r="B112"/>
-      <c s="24" r="C112"/>
-      <c s="28" r="D112"/>
-      <c s="24" r="E112"/>
-      <c s="28" r="F112"/>
-      <c s="24" r="G112"/>
-    </row>
-    <row r="113">
-      <c s="24" r="A113"/>
-      <c s="28" r="B113"/>
-      <c s="24" r="C113"/>
-      <c s="28" r="D113"/>
-      <c s="24" r="E113"/>
-      <c s="28" r="F113"/>
-      <c s="24" r="G113"/>
-    </row>
-    <row r="114">
-      <c s="24" r="A114"/>
-      <c s="28" r="B114"/>
-      <c s="24" r="C114"/>
-      <c s="28" r="D114"/>
-      <c s="24" r="E114"/>
-      <c s="28" r="F114"/>
-      <c s="24" r="G114"/>
-    </row>
-    <row r="115">
-      <c s="24" r="A115"/>
-      <c s="28" r="B115"/>
-      <c s="24" r="C115"/>
-      <c s="28" r="D115"/>
-      <c s="24" r="E115"/>
-      <c s="28" r="F115"/>
-      <c s="24" r="G115"/>
-    </row>
-    <row r="116">
-      <c s="24" r="A116"/>
-      <c s="28" r="B116"/>
-      <c s="24" r="C116"/>
-      <c s="28" r="D116"/>
-      <c s="24" r="E116"/>
-      <c s="28" r="F116"/>
-      <c s="24" r="G116"/>
-    </row>
-    <row r="117">
-      <c s="24" r="A117"/>
-      <c s="28" r="B117"/>
-      <c s="24" r="C117"/>
-      <c s="28" r="D117"/>
-      <c s="24" r="E117"/>
-      <c s="28" r="F117"/>
-      <c s="24" r="G117"/>
-    </row>
-    <row r="118">
-      <c s="24" r="A118"/>
-      <c s="28" r="B118"/>
-      <c s="24" r="C118"/>
-      <c s="28" r="D118"/>
-      <c s="24" r="E118"/>
-      <c s="28" r="F118"/>
-      <c s="24" r="G118"/>
-    </row>
-    <row r="119">
-      <c s="24" r="A119"/>
-      <c s="28" r="B119"/>
-      <c s="24" r="C119"/>
-      <c s="28" r="D119"/>
-      <c s="24" r="E119"/>
-      <c s="28" r="F119"/>
-      <c s="24" r="G119"/>
-    </row>
-    <row r="120">
-      <c s="24" r="A120"/>
-      <c s="28" r="B120"/>
-      <c s="24" r="C120"/>
-      <c s="28" r="D120"/>
-      <c s="24" r="E120"/>
-      <c s="28" r="F120"/>
-      <c s="24" r="G120"/>
-    </row>
-    <row r="121">
-      <c s="24" r="A121"/>
-      <c s="28" r="B121"/>
-      <c s="24" r="C121"/>
-      <c s="28" r="D121"/>
-      <c s="24" r="E121"/>
-      <c s="28" r="F121"/>
-      <c s="24" r="G121"/>
-    </row>
-    <row r="122">
-      <c s="24" r="A122"/>
-      <c s="28" r="B122"/>
-      <c s="24" r="C122"/>
-      <c s="28" r="D122"/>
-      <c s="24" r="E122"/>
-      <c s="28" r="F122"/>
-      <c s="24" r="G122"/>
-    </row>
-    <row r="123">
-      <c s="24" r="A123"/>
-      <c s="28" r="B123"/>
-      <c s="24" r="C123"/>
-      <c s="28" r="D123"/>
-      <c s="24" r="E123"/>
-      <c s="28" r="F123"/>
-      <c s="24" r="G123"/>
-    </row>
-    <row r="124">
-      <c s="24" r="A124"/>
-      <c s="28" r="B124"/>
-      <c s="24" r="C124"/>
-      <c s="28" r="D124"/>
-      <c s="24" r="E124"/>
-      <c s="28" r="F124"/>
-      <c s="24" r="G124"/>
-    </row>
-    <row r="125">
-      <c s="24" r="A125"/>
-      <c s="28" r="B125"/>
-      <c s="24" r="C125"/>
-      <c s="28" r="D125"/>
-      <c s="24" r="E125"/>
-      <c s="28" r="F125"/>
-      <c s="24" r="G125"/>
-    </row>
-    <row r="126">
-      <c s="24" r="A126"/>
-      <c s="28" r="B126"/>
-      <c s="24" r="C126"/>
-      <c s="28" r="D126"/>
-      <c s="24" r="E126"/>
-      <c s="28" r="F126"/>
-      <c s="24" r="G126"/>
-    </row>
-    <row r="127">
-      <c s="24" r="A127"/>
-      <c s="28" r="B127"/>
-      <c s="24" r="C127"/>
-      <c s="28" r="D127"/>
-      <c s="24" r="E127"/>
-      <c s="28" r="F127"/>
-      <c s="24" r="G127"/>
-    </row>
-    <row r="128">
-      <c s="24" r="A128"/>
-      <c s="28" r="B128"/>
-      <c s="24" r="C128"/>
-      <c s="28" r="D128"/>
-      <c s="24" r="E128"/>
-      <c s="28" r="F128"/>
-      <c s="24" r="G128"/>
-    </row>
-    <row r="129">
-      <c s="24" r="A129"/>
-      <c s="28" r="B129"/>
-      <c s="24" r="C129"/>
-      <c s="28" r="D129"/>
-      <c s="24" r="E129"/>
-      <c s="28" r="F129"/>
-      <c s="24" r="G129"/>
-    </row>
-    <row r="130">
-      <c s="24" r="A130"/>
-      <c s="28" r="B130"/>
-      <c s="24" r="C130"/>
-      <c s="28" r="D130"/>
-      <c s="24" r="E130"/>
-      <c s="28" r="F130"/>
-      <c s="24" r="G130"/>
     </row>
   </sheetData>
 </worksheet>
@@ -4355,14 +4355,14 @@
       </c>
       <c s="31" r="B1"/>
       <c s="31" r="C1"/>
-      <c s="34" r="D1"/>
-      <c s="39" r="E1"/>
+      <c s="33" r="D1"/>
+      <c s="38" r="E1"/>
       <c t="s" s="17" r="F1">
         <v>121</v>
       </c>
       <c s="31" r="G1"/>
       <c s="31" r="H1"/>
-      <c s="34" r="I1"/>
+      <c s="33" r="I1"/>
       <c s="2" r="J1"/>
     </row>
     <row r="2">
@@ -4378,7 +4378,7 @@
       <c t="s" s="43" r="D2">
         <v>125</v>
       </c>
-      <c s="39" r="E2"/>
+      <c s="38" r="E2"/>
       <c t="s" s="27" r="F2">
         <v>126</v>
       </c>
@@ -4406,7 +4406,7 @@
       <c t="s" s="12" r="D3">
         <v>133</v>
       </c>
-      <c s="39" r="E3"/>
+      <c s="38" r="E3"/>
       <c t="s" s="2" r="F3">
         <v>133</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c t="s" s="12" r="D4">
         <v>140</v>
       </c>
-      <c s="39" r="E4"/>
+      <c s="38" r="E4"/>
       <c t="s" s="2" r="F4">
         <v>141</v>
       </c>
@@ -4462,14 +4462,14 @@
       <c t="s" s="12" r="D5">
         <v>147</v>
       </c>
-      <c s="39" r="E5"/>
+      <c s="38" r="E5"/>
       <c t="s" s="26" r="F5">
         <v>148</v>
       </c>
-      <c t="s" s="35" r="G5">
+      <c t="s" s="34" r="G5">
         <v>149</v>
       </c>
-      <c t="s" s="35" r="H5">
+      <c t="s" s="34" r="H5">
         <v>150</v>
       </c>
       <c s="23" r="I5"/>
@@ -4507,13 +4507,13 @@
       <c t="s" s="12" r="D7">
         <v>157</v>
       </c>
-      <c s="39" r="E7"/>
+      <c s="38" r="E7"/>
       <c t="s" s="17" r="F7">
         <v>158</v>
       </c>
       <c s="31" r="G7"/>
       <c s="31" r="H7"/>
-      <c s="34" r="I7"/>
+      <c s="33" r="I7"/>
       <c s="2" r="J7"/>
     </row>
     <row r="8">
@@ -4529,7 +4529,7 @@
       <c t="s" s="12" r="D8">
         <v>162</v>
       </c>
-      <c s="39" r="E8"/>
+      <c s="38" r="E8"/>
       <c t="s" s="27" r="F8">
         <v>163</v>
       </c>
@@ -4548,14 +4548,14 @@
       <c t="s" s="26" r="A9">
         <v>166</v>
       </c>
-      <c t="s" s="35" r="B9">
+      <c t="s" s="34" r="B9">
         <v>167</v>
       </c>
-      <c t="s" s="35" r="C9">
+      <c t="s" s="34" r="C9">
         <v>168</v>
       </c>
       <c s="23" r="D9"/>
-      <c s="39" r="E9"/>
+      <c s="38" r="E9"/>
       <c t="s" s="2" r="F9">
         <v>144</v>
       </c>
@@ -4579,20 +4579,20 @@
       <c t="s" s="26" r="F10">
         <v>172</v>
       </c>
-      <c t="s" s="35" r="G10">
+      <c t="s" s="34" r="G10">
         <v>173</v>
       </c>
-      <c t="s" s="35" r="H10">
+      <c t="s" s="34" r="H10">
         <v>174</v>
       </c>
       <c s="23" r="I10"/>
       <c s="2" r="J10"/>
     </row>
     <row customHeight="1" r="11" ht="26.25">
-      <c s="35" r="A11"/>
-      <c s="35" r="B11"/>
-      <c s="35" r="C11"/>
-      <c s="35" r="D11"/>
+      <c s="34" r="A11"/>
+      <c s="34" r="B11"/>
+      <c s="34" r="C11"/>
+      <c s="34" r="D11"/>
       <c s="31" r="F11"/>
       <c s="31" r="G11"/>
       <c s="31" r="H11"/>
@@ -4604,14 +4604,14 @@
       </c>
       <c s="31" r="B12"/>
       <c s="31" r="C12"/>
-      <c s="34" r="D12"/>
-      <c s="39" r="E12"/>
+      <c s="33" r="D12"/>
+      <c s="38" r="E12"/>
       <c t="s" s="17" r="F12">
         <v>176</v>
       </c>
       <c s="31" r="G12"/>
       <c s="31" r="H12"/>
-      <c s="34" r="I12"/>
+      <c s="33" r="I12"/>
       <c s="2" r="J12"/>
     </row>
     <row r="13">
@@ -4627,7 +4627,7 @@
       <c t="s" s="43" r="D13">
         <v>180</v>
       </c>
-      <c s="39" r="E13"/>
+      <c s="38" r="E13"/>
       <c t="s" s="27" r="F13">
         <v>181</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c t="s" s="12" r="D14">
         <v>187</v>
       </c>
-      <c s="39" r="E14"/>
+      <c s="38" r="E14"/>
       <c t="s" s="2" r="F14">
         <v>186</v>
       </c>
@@ -4683,14 +4683,14 @@
       <c t="s" s="12" r="D15">
         <v>128</v>
       </c>
-      <c s="39" r="E15"/>
+      <c s="38" r="E15"/>
       <c t="s" s="26" r="F15">
         <v>191</v>
       </c>
-      <c t="s" s="35" r="G15">
+      <c t="s" s="34" r="G15">
         <v>192</v>
       </c>
-      <c t="s" s="35" r="H15">
+      <c t="s" s="34" r="H15">
         <v>144</v>
       </c>
       <c s="23" r="I15"/>
@@ -4719,8 +4719,8 @@
       <c t="s" s="26" r="A17">
         <v>169</v>
       </c>
-      <c s="35" r="B17"/>
-      <c s="35" r="C17"/>
+      <c s="34" r="B17"/>
+      <c s="34" r="C17"/>
       <c s="23" r="D17"/>
       <c s="2" r="E17"/>
     </row>
@@ -4784,7 +4784,7 @@
         <v>195</v>
       </c>
       <c t="s" r="B2">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -4792,7 +4792,7 @@
         <v>196</v>
       </c>
       <c t="s" r="B3">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -4832,7 +4832,7 @@
         <v>204</v>
       </c>
       <c t="s" r="B9">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -4840,7 +4840,7 @@
         <v>205</v>
       </c>
       <c t="s" r="B10">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
